--- a/outputs/reporte_inversion_simple.xlsx
+++ b/outputs/reporte_inversion_simple.xlsx
@@ -484,16 +484,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005081257600491561</v>
+        <v>0.005082019057871365</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003775816163778306</v>
+        <v>0.003794436248883011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3437479903760811</v>
+        <v>0.3454361525043929</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9984860291797362</v>
+        <v>0.9981012598904553</v>
       </c>
       <c r="F2" t="n">
         <v>0.4929859719438878</v>
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.005091454330542504</v>
+        <v>0.005093568395535689</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003782720000000001</v>
+        <v>0.003786700000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3443773126027257</v>
+        <v>0.3447169478410994</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999999999961235</v>
+        <v>0.9999999999612673</v>
       </c>
       <c r="F3" t="n">
         <v>0.4849699398797595</v>
@@ -528,16 +528,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04863723372035157</v>
+        <v>0.04864558520513765</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03683992403736221</v>
+        <v>0.03684390403736221</v>
       </c>
       <c r="D4" t="n">
-        <v>3.277387322325912</v>
+        <v>3.27769802573799</v>
       </c>
       <c r="E4" t="n">
-        <v>9.575830980236894</v>
+        <v>9.573480775467155</v>
       </c>
       <c r="F4" t="n">
         <v>0.03006012024048096</v>
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.07441770443117221</v>
+        <v>0.07442602127088836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05646059942190827</v>
+        <v>0.05646457942190826</v>
       </c>
       <c r="D5" t="n">
-        <v>5.009515348233323</v>
+        <v>5.009810488656016</v>
       </c>
       <c r="E5" t="n">
-        <v>14.65180172809578</v>
+        <v>14.64732759979883</v>
       </c>
       <c r="F5" t="n">
         <v>0.5130260521042084</v>
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1017137848990204</v>
+        <v>-0.1152911486002175</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9190247177388133</v>
+        <v>0.908260732156108</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.64758688697487</v>
+        <v>14.64521242020582</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.42601536606698</v>
+        <v>15.42393510211819</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>1.066753517373438</v>
       </c>
       <c r="F2" t="n">
-        <v>1.06600675191164</v>
+        <v>1.066218696752786</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +742,7 @@
         <v>1.066647034858732</v>
       </c>
       <c r="F3" t="n">
-        <v>1.059445601989031</v>
+        <v>1.058957463197708</v>
       </c>
     </row>
     <row r="4">
@@ -762,7 +762,7 @@
         <v>1.066540552344026</v>
       </c>
       <c r="F4" t="n">
-        <v>1.056508853690624</v>
+        <v>1.056364896271229</v>
       </c>
     </row>
     <row r="5">
@@ -782,7 +782,7 @@
         <v>1.06643406982932</v>
       </c>
       <c r="F5" t="n">
-        <v>1.055905990331173</v>
+        <v>1.055904479653835</v>
       </c>
     </row>
     <row r="6">
@@ -802,7 +802,7 @@
         <v>1.066327587314614</v>
       </c>
       <c r="F6" t="n">
-        <v>1.056286944701076</v>
+        <v>1.056362383382917</v>
       </c>
     </row>
     <row r="7">
@@ -822,7 +822,7 @@
         <v>1.066221104799908</v>
       </c>
       <c r="F7" t="n">
-        <v>1.06107646709919</v>
+        <v>1.061323769851327</v>
       </c>
     </row>
     <row r="8">
@@ -842,7 +842,7 @@
         <v>1.066114622285202</v>
       </c>
       <c r="F8" t="n">
-        <v>1.057337015719414</v>
+        <v>1.05718261382103</v>
       </c>
     </row>
     <row r="9">
@@ -862,7 +862,7 @@
         <v>1.066008139770495</v>
       </c>
       <c r="F9" t="n">
-        <v>1.056445247292519</v>
+        <v>1.056435044716597</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>1.065901657255789</v>
       </c>
       <c r="F10" t="n">
-        <v>1.061764962878823</v>
+        <v>1.061996200441122</v>
       </c>
     </row>
     <row r="11">
@@ -902,7 +902,7 @@
         <v>1.065795174741083</v>
       </c>
       <c r="F11" t="n">
-        <v>1.071954451981187</v>
+        <v>1.072331092607975</v>
       </c>
     </row>
     <row r="12">
@@ -922,7 +922,7 @@
         <v>1.065688692226377</v>
       </c>
       <c r="F12" t="n">
-        <v>1.071533712463379</v>
+        <v>1.071374983780384</v>
       </c>
     </row>
     <row r="13">
@@ -942,7 +942,7 @@
         <v>1.065582209711671</v>
       </c>
       <c r="F13" t="n">
-        <v>1.069912139987945</v>
+        <v>1.069714134705067</v>
       </c>
     </row>
     <row r="14">
@@ -962,7 +962,7 @@
         <v>1.065475727196965</v>
       </c>
       <c r="F14" t="n">
-        <v>1.070767679136992</v>
+        <v>1.070747827816009</v>
       </c>
     </row>
     <row r="15">
@@ -982,7 +982,7 @@
         <v>1.065369244682259</v>
       </c>
       <c r="F15" t="n">
-        <v>1.066818079504967</v>
+        <v>1.066594459294081</v>
       </c>
     </row>
     <row r="16">
@@ -1002,7 +1002,7 @@
         <v>1.065262762167552</v>
       </c>
       <c r="F16" t="n">
-        <v>1.068152148937583</v>
+        <v>1.068219392303824</v>
       </c>
     </row>
     <row r="17">
@@ -1022,7 +1022,7 @@
         <v>1.065156279652846</v>
       </c>
       <c r="F17" t="n">
-        <v>1.069618599472046</v>
+        <v>1.069753977732658</v>
       </c>
     </row>
     <row r="18">
@@ -1042,7 +1042,7 @@
         <v>1.06504979713814</v>
       </c>
       <c r="F18" t="n">
-        <v>1.086837439022064</v>
+        <v>1.087559500789642</v>
       </c>
     </row>
     <row r="19">
@@ -1062,7 +1062,7 @@
         <v>1.064943314623434</v>
       </c>
       <c r="F19" t="n">
-        <v>1.084639642410278</v>
+        <v>1.084439696002006</v>
       </c>
     </row>
     <row r="20">
@@ -1082,7 +1082,7 @@
         <v>1.064836832108728</v>
       </c>
       <c r="F20" t="n">
-        <v>1.085321956032515</v>
+        <v>1.0852679412812</v>
       </c>
     </row>
     <row r="21">
@@ -1102,7 +1102,7 @@
         <v>1.064730349594022</v>
       </c>
       <c r="F21" t="n">
-        <v>1.091014467973709</v>
+        <v>1.091188389694691</v>
       </c>
     </row>
     <row r="22">
@@ -1122,7 +1122,7 @@
         <v>1.064623867079316</v>
       </c>
       <c r="F22" t="n">
-        <v>1.093901057808399</v>
+        <v>1.093913512323499</v>
       </c>
     </row>
     <row r="23">
@@ -1142,7 +1142,7 @@
         <v>1.064517384564609</v>
       </c>
       <c r="F23" t="n">
-        <v>1.091328304439783</v>
+        <v>1.091167788680792</v>
       </c>
     </row>
     <row r="24">
@@ -1162,7 +1162,7 @@
         <v>1.064410902049903</v>
       </c>
       <c r="F24" t="n">
-        <v>1.088958212871551</v>
+        <v>1.088781044222116</v>
       </c>
     </row>
     <row r="25">
@@ -1182,7 +1182,7 @@
         <v>1.064304419535197</v>
       </c>
       <c r="F25" t="n">
-        <v>1.090498970739842</v>
+        <v>1.090653813654184</v>
       </c>
     </row>
     <row r="26">
@@ -1202,7 +1202,7 @@
         <v>1.064197937020491</v>
       </c>
       <c r="F26" t="n">
-        <v>1.093345516161919</v>
+        <v>1.093570318088531</v>
       </c>
     </row>
     <row r="27">
@@ -1222,7 +1222,7 @@
         <v>1.064091454505785</v>
       </c>
       <c r="F27" t="n">
-        <v>1.09525632137537</v>
+        <v>1.095437704540491</v>
       </c>
     </row>
     <row r="28">
@@ -1242,7 +1242,7 @@
         <v>1.063984971991079</v>
       </c>
       <c r="F28" t="n">
-        <v>1.099168006523847</v>
+        <v>1.099418859707117</v>
       </c>
     </row>
     <row r="29">
@@ -1262,7 +1262,7 @@
         <v>1.063878489476373</v>
       </c>
       <c r="F29" t="n">
-        <v>1.096872124023437</v>
+        <v>1.096862839508057</v>
       </c>
     </row>
     <row r="30">
@@ -1282,7 +1282,7 @@
         <v>1.063772006961667</v>
       </c>
       <c r="F30" t="n">
-        <v>1.088518881751299</v>
+        <v>1.088427500144243</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1.06366552444696</v>
       </c>
       <c r="F31" t="n">
-        <v>1.087680190244913</v>
+        <v>1.087848285700083</v>
       </c>
     </row>
     <row r="32">
@@ -1322,7 +1322,7 @@
         <v>1.063559041932254</v>
       </c>
       <c r="F32" t="n">
-        <v>1.083016656355262</v>
+        <v>1.08307122833848</v>
       </c>
     </row>
     <row r="33">
@@ -1342,7 +1342,7 @@
         <v>1.063452559417548</v>
       </c>
       <c r="F33" t="n">
-        <v>1.079288982505798</v>
+        <v>1.079329077240229</v>
       </c>
     </row>
     <row r="34">
@@ -1362,7 +1362,7 @@
         <v>1.063346076902842</v>
       </c>
       <c r="F34" t="n">
-        <v>1.075850763738155</v>
+        <v>1.075930503787994</v>
       </c>
     </row>
     <row r="35">
@@ -1382,7 +1382,7 @@
         <v>1.063239594388136</v>
       </c>
       <c r="F35" t="n">
-        <v>1.079658248138428</v>
+        <v>1.079988717947006</v>
       </c>
     </row>
     <row r="36">
@@ -1402,7 +1402,7 @@
         <v>1.06313311187343</v>
       </c>
       <c r="F36" t="n">
-        <v>1.076143315792084</v>
+        <v>1.076233374993801</v>
       </c>
     </row>
     <row r="37">
@@ -1422,7 +1422,7 @@
         <v>1.063026629358724</v>
       </c>
       <c r="F37" t="n">
-        <v>1.076570700888634</v>
+        <v>1.076652562494278</v>
       </c>
     </row>
     <row r="38">
@@ -1442,7 +1442,7 @@
         <v>1.062920146844017</v>
       </c>
       <c r="F38" t="n">
-        <v>1.07977730214715</v>
+        <v>1.079923609127998</v>
       </c>
     </row>
     <row r="39">
@@ -1462,7 +1462,7 @@
         <v>1.062813664329311</v>
       </c>
       <c r="F39" t="n">
-        <v>1.087431277859211</v>
+        <v>1.087713483600617</v>
       </c>
     </row>
     <row r="40">
@@ -1482,7 +1482,7 @@
         <v>1.062707181814605</v>
       </c>
       <c r="F40" t="n">
-        <v>1.09792446429491</v>
+        <v>1.098158860051632</v>
       </c>
     </row>
     <row r="41">
@@ -1502,7 +1502,7 @@
         <v>1.062600699299899</v>
       </c>
       <c r="F41" t="n">
-        <v>1.089326883080006</v>
+        <v>1.088925714105368</v>
       </c>
     </row>
     <row r="42">
@@ -1522,7 +1522,7 @@
         <v>1.062494216785193</v>
       </c>
       <c r="F42" t="n">
-        <v>1.091965803456306</v>
+        <v>1.091873354411125</v>
       </c>
     </row>
     <row r="43">
@@ -1542,7 +1542,7 @@
         <v>1.062387734270487</v>
       </c>
       <c r="F43" t="n">
-        <v>1.097408477447033</v>
+        <v>1.097430007971525</v>
       </c>
     </row>
     <row r="44">
@@ -1562,7 +1562,7 @@
         <v>1.062281251755781</v>
       </c>
       <c r="F44" t="n">
-        <v>1.094283213953972</v>
+        <v>1.093987199319601</v>
       </c>
     </row>
     <row r="45">
@@ -1582,7 +1582,7 @@
         <v>1.062174769241074</v>
       </c>
       <c r="F45" t="n">
-        <v>1.100534807546139</v>
+        <v>1.100677818084359</v>
       </c>
     </row>
     <row r="46">
@@ -1602,7 +1602,7 @@
         <v>1.062068286726368</v>
       </c>
       <c r="F46" t="n">
-        <v>1.100956485314369</v>
+        <v>1.100830542337895</v>
       </c>
     </row>
     <row r="47">
@@ -1622,7 +1622,7 @@
         <v>1.061961804211662</v>
       </c>
       <c r="F47" t="n">
-        <v>1.103801619780064</v>
+        <v>1.103809253680706</v>
       </c>
     </row>
     <row r="48">
@@ -1642,7 +1642,7 @@
         <v>1.061855321696956</v>
       </c>
       <c r="F48" t="n">
-        <v>1.109962325084209</v>
+        <v>1.110101404809952</v>
       </c>
     </row>
     <row r="49">
@@ -1662,7 +1662,7 @@
         <v>1.06174883918225</v>
       </c>
       <c r="F49" t="n">
-        <v>1.10657460000515</v>
+        <v>1.106130286428332</v>
       </c>
     </row>
     <row r="50">
@@ -1682,7 +1682,7 @@
         <v>1.061642356667544</v>
       </c>
       <c r="F50" t="n">
-        <v>1.104208183174133</v>
+        <v>1.103879607982635</v>
       </c>
     </row>
     <row r="51">
@@ -1702,7 +1702,7 @@
         <v>1.061535874152838</v>
       </c>
       <c r="F51" t="n">
-        <v>1.094540735917091</v>
+        <v>1.09395481456399</v>
       </c>
     </row>
     <row r="52">
@@ -1722,7 +1722,7 @@
         <v>1.061429391638131</v>
       </c>
       <c r="F52" t="n">
-        <v>1.091615785545111</v>
+        <v>1.091634594333172</v>
       </c>
     </row>
     <row r="53">
@@ -1742,7 +1742,7 @@
         <v>1.061322909123425</v>
       </c>
       <c r="F53" t="n">
-        <v>1.094534086537361</v>
+        <v>1.09486398952961</v>
       </c>
     </row>
     <row r="54">
@@ -1762,7 +1762,7 @@
         <v>1.061216426608719</v>
       </c>
       <c r="F54" t="n">
-        <v>1.093937663674355</v>
+        <v>1.09411620665431</v>
       </c>
     </row>
     <row r="55">
@@ -1782,7 +1782,7 @@
         <v>1.061109944094013</v>
       </c>
       <c r="F55" t="n">
-        <v>1.095009869464636</v>
+        <v>1.095176693660021</v>
       </c>
     </row>
     <row r="56">
@@ -1802,7 +1802,7 @@
         <v>1.061003461579307</v>
       </c>
       <c r="F56" t="n">
-        <v>1.092919315200448</v>
+        <v>1.092925373897552</v>
       </c>
     </row>
     <row r="57">
@@ -1822,7 +1822,7 @@
         <v>1.060896979064601</v>
       </c>
       <c r="F57" t="n">
-        <v>1.097174075585604</v>
+        <v>1.097323958734274</v>
       </c>
     </row>
     <row r="58">
@@ -1842,7 +1842,7 @@
         <v>1.060790496549895</v>
       </c>
       <c r="F58" t="n">
-        <v>1.097149237840176</v>
+        <v>1.097134980769157</v>
       </c>
     </row>
     <row r="59">
@@ -1862,7 +1862,7 @@
         <v>1.060684014035189</v>
       </c>
       <c r="F59" t="n">
-        <v>1.094704438564778</v>
+        <v>1.094600475692749</v>
       </c>
     </row>
     <row r="60">
@@ -1882,7 +1882,7 @@
         <v>1.060577531520482</v>
       </c>
       <c r="F60" t="n">
-        <v>1.094741726272106</v>
+        <v>1.094701261048317</v>
       </c>
     </row>
     <row r="61">
@@ -1902,7 +1902,7 @@
         <v>1.060471049005776</v>
       </c>
       <c r="F61" t="n">
-        <v>1.086988348953724</v>
+        <v>1.086743204028606</v>
       </c>
     </row>
     <row r="62">
@@ -1922,7 +1922,7 @@
         <v>1.06036456649107</v>
       </c>
       <c r="F62" t="n">
-        <v>1.087832644472122</v>
+        <v>1.087909756617546</v>
       </c>
     </row>
     <row r="63">
@@ -1942,7 +1942,7 @@
         <v>1.060258083976364</v>
       </c>
       <c r="F63" t="n">
-        <v>1.087257396097183</v>
+        <v>1.08727515630126</v>
       </c>
     </row>
     <row r="64">
@@ -1962,7 +1962,7 @@
         <v>1.060151601461658</v>
       </c>
       <c r="F64" t="n">
-        <v>1.089448270887136</v>
+        <v>1.08958888374269</v>
       </c>
     </row>
     <row r="65">
@@ -1982,7 +1982,7 @@
         <v>1.060045118946952</v>
       </c>
       <c r="F65" t="n">
-        <v>1.087981605806351</v>
+        <v>1.087997690491676</v>
       </c>
     </row>
     <row r="66">
@@ -2002,7 +2002,7 @@
         <v>1.059938636432246</v>
       </c>
       <c r="F66" t="n">
-        <v>1.085088349834085</v>
+        <v>1.084996819227934</v>
       </c>
     </row>
     <row r="67">
@@ -2022,7 +2022,7 @@
         <v>1.059832153917539</v>
       </c>
       <c r="F67" t="n">
-        <v>1.088022364146113</v>
+        <v>1.088203554712534</v>
       </c>
     </row>
     <row r="68">
@@ -2042,7 +2042,7 @@
         <v>1.059725671402833</v>
       </c>
       <c r="F68" t="n">
-        <v>1.084667499489784</v>
+        <v>1.084594638067484</v>
       </c>
     </row>
     <row r="69">
@@ -2062,7 +2062,7 @@
         <v>1.059619188888127</v>
       </c>
       <c r="F69" t="n">
-        <v>1.085103216302395</v>
+        <v>1.085212605267763</v>
       </c>
     </row>
     <row r="70">
@@ -2082,7 +2082,7 @@
         <v>1.059512706373421</v>
       </c>
       <c r="F70" t="n">
-        <v>1.083578573645353</v>
+        <v>1.083579606827497</v>
       </c>
     </row>
     <row r="71">
@@ -2102,7 +2102,7 @@
         <v>1.059406223858715</v>
       </c>
       <c r="F71" t="n">
-        <v>1.084279336150288</v>
+        <v>1.084427363218665</v>
       </c>
     </row>
     <row r="72">
@@ -2122,7 +2122,7 @@
         <v>1.059299741344009</v>
       </c>
       <c r="F72" t="n">
-        <v>1.08187011403799</v>
+        <v>1.081835554511547</v>
       </c>
     </row>
     <row r="73">
@@ -2142,7 +2142,7 @@
         <v>1.059193258829303</v>
       </c>
       <c r="F73" t="n">
-        <v>1.086577790676951</v>
+        <v>1.086824921146035</v>
       </c>
     </row>
     <row r="74">
@@ -2162,7 +2162,7 @@
         <v>1.059086776314596</v>
       </c>
       <c r="F74" t="n">
-        <v>1.078810771625042</v>
+        <v>1.078525784776211</v>
       </c>
     </row>
     <row r="75">
@@ -2182,7 +2182,7 @@
         <v>1.05898029379989</v>
       </c>
       <c r="F75" t="n">
-        <v>1.073967632722259</v>
+        <v>1.073886647977829</v>
       </c>
     </row>
     <row r="76">
@@ -2202,7 +2202,7 @@
         <v>1.058873811285184</v>
       </c>
       <c r="F76" t="n">
-        <v>1.07523180087328</v>
+        <v>1.075453460828066</v>
       </c>
     </row>
     <row r="77">
@@ -2222,7 +2222,7 @@
         <v>1.058767328770478</v>
       </c>
       <c r="F77" t="n">
-        <v>1.077089467523694</v>
+        <v>1.07735883471489</v>
       </c>
     </row>
     <row r="78">
@@ -2242,7 +2242,7 @@
         <v>1.058660846255772</v>
       </c>
       <c r="F78" t="n">
-        <v>1.077638243559003</v>
+        <v>1.077792227073908</v>
       </c>
     </row>
     <row r="79">
@@ -2262,7 +2262,7 @@
         <v>1.058554363741066</v>
       </c>
       <c r="F79" t="n">
-        <v>1.078271001646519</v>
+        <v>1.078380532791614</v>
       </c>
     </row>
     <row r="80">
@@ -2282,7 +2282,7 @@
         <v>1.05844788122636</v>
       </c>
       <c r="F80" t="n">
-        <v>1.077186307901144</v>
+        <v>1.07718810562253</v>
       </c>
     </row>
     <row r="81">
@@ -2302,7 +2302,7 @@
         <v>1.058341398711653</v>
       </c>
       <c r="F81" t="n">
-        <v>1.071140979630947</v>
+        <v>1.071033489880562</v>
       </c>
     </row>
     <row r="82">
@@ -2322,7 +2322,7 @@
         <v>1.058234916196947</v>
       </c>
       <c r="F82" t="n">
-        <v>1.07251569747448</v>
+        <v>1.072727275882959</v>
       </c>
     </row>
     <row r="83">
@@ -2342,7 +2342,7 @@
         <v>1.058128433682241</v>
       </c>
       <c r="F83" t="n">
-        <v>1.076873095579147</v>
+        <v>1.077097320013046</v>
       </c>
     </row>
     <row r="84">
@@ -2362,7 +2362,7 @@
         <v>1.058021951167535</v>
       </c>
       <c r="F84" t="n">
-        <v>1.077344923236966</v>
+        <v>1.077351410162449</v>
       </c>
     </row>
     <row r="85">
@@ -2382,7 +2382,7 @@
         <v>1.057915468652829</v>
       </c>
       <c r="F85" t="n">
-        <v>1.077695731443763</v>
+        <v>1.07765930257678</v>
       </c>
     </row>
     <row r="86">
@@ -2402,7 +2402,7 @@
         <v>1.057808986138123</v>
       </c>
       <c r="F86" t="n">
-        <v>1.080348700315952</v>
+        <v>1.080381876055598</v>
       </c>
     </row>
     <row r="87">
@@ -2422,7 +2422,7 @@
         <v>1.057702503623417</v>
       </c>
       <c r="F87" t="n">
-        <v>1.081417276045084</v>
+        <v>1.081345710184574</v>
       </c>
     </row>
     <row r="88">
@@ -2442,7 +2442,7 @@
         <v>1.057596021108711</v>
       </c>
       <c r="F88" t="n">
-        <v>1.082036089152098</v>
+        <v>1.081956935250759</v>
       </c>
     </row>
     <row r="89">
@@ -2462,7 +2462,7 @@
         <v>1.057489538594004</v>
       </c>
       <c r="F89" t="n">
-        <v>1.081905978011489</v>
+        <v>1.081788405424357</v>
       </c>
     </row>
     <row r="90">
@@ -2482,7 +2482,7 @@
         <v>1.057383056079298</v>
       </c>
       <c r="F90" t="n">
-        <v>1.08460258513093</v>
+        <v>1.084673855900764</v>
       </c>
     </row>
     <row r="91">
@@ -2502,7 +2502,7 @@
         <v>1.057276573564592</v>
       </c>
       <c r="F91" t="n">
-        <v>1.084305399540663</v>
+        <v>1.084183365887403</v>
       </c>
     </row>
     <row r="92">
@@ -2522,7 +2522,7 @@
         <v>1.057170091049886</v>
       </c>
       <c r="F92" t="n">
-        <v>1.083599724583626</v>
+        <v>1.083504382739067</v>
       </c>
     </row>
     <row r="93">
@@ -2542,7 +2542,7 @@
         <v>1.05706360853518</v>
       </c>
       <c r="F93" t="n">
-        <v>1.080502043116093</v>
+        <v>1.080282445764541</v>
       </c>
     </row>
     <row r="94">
@@ -2562,7 +2562,7 @@
         <v>1.056957126020474</v>
       </c>
       <c r="F94" t="n">
-        <v>1.08346045979023</v>
+        <v>1.083669519248009</v>
       </c>
     </row>
     <row r="95">
@@ -2582,7 +2582,7 @@
         <v>1.056850643505768</v>
       </c>
       <c r="F95" t="n">
-        <v>1.08529370816052</v>
+        <v>1.08534340069592</v>
       </c>
     </row>
     <row r="96">
@@ -2602,7 +2602,7 @@
         <v>1.056744160991061</v>
       </c>
       <c r="F96" t="n">
-        <v>1.085421957982183</v>
+        <v>1.085409663802982</v>
       </c>
     </row>
     <row r="97">
@@ -2622,7 +2622,7 @@
         <v>1.056637678476355</v>
       </c>
       <c r="F97" t="n">
-        <v>1.089320263266564</v>
+        <v>1.08955442301929</v>
       </c>
     </row>
     <row r="98">
@@ -2642,7 +2642,7 @@
         <v>1.056531195961649</v>
       </c>
       <c r="F98" t="n">
-        <v>1.094296720178127</v>
+        <v>1.094529556987285</v>
       </c>
     </row>
     <row r="99">
@@ -2662,7 +2662,7 @@
         <v>1.056424713446943</v>
       </c>
       <c r="F99" t="n">
-        <v>1.093869165312648</v>
+        <v>1.09372213185072</v>
       </c>
     </row>
     <row r="100">
@@ -2682,7 +2682,7 @@
         <v>1.056318230932237</v>
       </c>
       <c r="F100" t="n">
-        <v>1.092532417315245</v>
+        <v>1.09238654615283</v>
       </c>
     </row>
     <row r="101">
@@ -2702,7 +2702,7 @@
         <v>1.056211748417531</v>
       </c>
       <c r="F101" t="n">
-        <v>1.092412784247398</v>
+        <v>1.092378856799006</v>
       </c>
     </row>
     <row r="102">
@@ -2722,7 +2722,7 @@
         <v>1.056105265902825</v>
       </c>
       <c r="F102" t="n">
-        <v>1.094490193519592</v>
+        <v>1.094629117959142</v>
       </c>
     </row>
     <row r="103">
@@ -2742,7 +2742,7 @@
         <v>1.055998783388118</v>
       </c>
       <c r="F103" t="n">
-        <v>1.088290856273174</v>
+        <v>1.088036558396816</v>
       </c>
     </row>
     <row r="104">
@@ -2762,7 +2762,7 @@
         <v>1.055892300873412</v>
       </c>
       <c r="F104" t="n">
-        <v>1.088125764659643</v>
+        <v>1.088220932621956</v>
       </c>
     </row>
     <row r="105">
@@ -2782,7 +2782,7 @@
         <v>1.055785818358706</v>
       </c>
       <c r="F105" t="n">
-        <v>1.08697868206799</v>
+        <v>1.087015942972898</v>
       </c>
     </row>
     <row r="106">
@@ -2802,7 +2802,7 @@
         <v>1.055679335844</v>
       </c>
       <c r="F106" t="n">
-        <v>1.086247942560315</v>
+        <v>1.086319889429808</v>
       </c>
     </row>
     <row r="107">
@@ -2822,7 +2822,7 @@
         <v>1.055572853329294</v>
       </c>
       <c r="F107" t="n">
-        <v>1.091587903978825</v>
+        <v>1.091996968784332</v>
       </c>
     </row>
     <row r="108">
@@ -2842,7 +2842,7 @@
         <v>1.055466370814588</v>
       </c>
       <c r="F108" t="n">
-        <v>1.085989572970867</v>
+        <v>1.085762489507198</v>
       </c>
     </row>
     <row r="109">
@@ -2862,7 +2862,7 @@
         <v>1.055359888299882</v>
       </c>
       <c r="F109" t="n">
-        <v>1.080347795881033</v>
+        <v>1.080123466331363</v>
       </c>
     </row>
     <row r="110">
@@ -2882,7 +2882,7 @@
         <v>1.055253405785175</v>
       </c>
       <c r="F110" t="n">
-        <v>1.083358675246239</v>
+        <v>1.083604617991447</v>
       </c>
     </row>
     <row r="111">
@@ -2902,7 +2902,7 @@
         <v>1.055146923270469</v>
       </c>
       <c r="F111" t="n">
-        <v>1.083020232850313</v>
+        <v>1.083111844584346</v>
       </c>
     </row>
     <row r="112">
@@ -2922,7 +2922,7 @@
         <v>1.055040440755763</v>
       </c>
       <c r="F112" t="n">
-        <v>1.082452046105862</v>
+        <v>1.08250650621891</v>
       </c>
     </row>
     <row r="113">
@@ -2942,7 +2942,7 @@
         <v>1.054933958241057</v>
       </c>
       <c r="F113" t="n">
-        <v>1.078614168981314</v>
+        <v>1.078503190780878</v>
       </c>
     </row>
     <row r="114">
@@ -2962,7 +2962,7 @@
         <v>1.054827475726351</v>
       </c>
       <c r="F114" t="n">
-        <v>1.078540547084808</v>
+        <v>1.07859326941967</v>
       </c>
     </row>
     <row r="115">
@@ -2982,7 +2982,7 @@
         <v>1.054720993211645</v>
       </c>
       <c r="F115" t="n">
-        <v>1.073976106061339</v>
+        <v>1.073843440241218</v>
       </c>
     </row>
     <row r="116">
@@ -3002,7 +3002,7 @@
         <v>1.054614510696939</v>
       </c>
       <c r="F116" t="n">
-        <v>1.076629623707533</v>
+        <v>1.076824028227329</v>
       </c>
     </row>
     <row r="117">
@@ -3022,7 +3022,7 @@
         <v>1.054508028182233</v>
       </c>
       <c r="F117" t="n">
-        <v>1.083215316295624</v>
+        <v>1.083551623892784</v>
       </c>
     </row>
     <row r="118">
@@ -3042,7 +3042,7 @@
         <v>1.054401545667526</v>
       </c>
       <c r="F118" t="n">
-        <v>1.083504949829579</v>
+        <v>1.083482212269306</v>
       </c>
     </row>
     <row r="119">
@@ -3062,7 +3062,7 @@
         <v>1.05429506315282</v>
       </c>
       <c r="F119" t="n">
-        <v>1.083463823084831</v>
+        <v>1.083366612477898</v>
       </c>
     </row>
     <row r="120">
@@ -3082,7 +3082,7 @@
         <v>1.054188580638114</v>
       </c>
       <c r="F120" t="n">
-        <v>1.08550121473968</v>
+        <v>1.085473125520348</v>
       </c>
     </row>
     <row r="121">
@@ -3102,7 +3102,7 @@
         <v>1.054082098123408</v>
       </c>
       <c r="F121" t="n">
-        <v>1.085520874247551</v>
+        <v>1.085397663416863</v>
       </c>
     </row>
     <row r="122">
@@ -3122,7 +3122,7 @@
         <v>1.053975615608702</v>
       </c>
       <c r="F122" t="n">
-        <v>1.07438927880764</v>
+        <v>1.073985488641262</v>
       </c>
     </row>
     <row r="123">
@@ -3142,7 +3142,7 @@
         <v>1.053869133093996</v>
       </c>
       <c r="F123" t="n">
-        <v>1.072426207509041</v>
+        <v>1.072458874903917</v>
       </c>
     </row>
     <row r="124">
@@ -3162,7 +3162,7 @@
         <v>1.05376265057929</v>
       </c>
       <c r="F124" t="n">
-        <v>1.064180951029062</v>
+        <v>1.064203657073975</v>
       </c>
     </row>
     <row r="125">
@@ -3182,7 +3182,7 @@
         <v>1.053656168064584</v>
       </c>
       <c r="F125" t="n">
-        <v>1.061988917613029</v>
+        <v>1.062319153285027</v>
       </c>
     </row>
     <row r="126">
@@ -3202,7 +3202,7 @@
         <v>1.053549685549877</v>
       </c>
       <c r="F126" t="n">
-        <v>1.061774494029283</v>
+        <v>1.062348064289093</v>
       </c>
     </row>
     <row r="127">
@@ -3222,7 +3222,7 @@
         <v>1.053443203035171</v>
       </c>
       <c r="F127" t="n">
-        <v>1.067340892353058</v>
+        <v>1.06806839854002</v>
       </c>
     </row>
     <row r="128">
@@ -3242,7 +3242,7 @@
         <v>1.053336720520465</v>
       </c>
       <c r="F128" t="n">
-        <v>1.064329707312584</v>
+        <v>1.06477356175065</v>
       </c>
     </row>
     <row r="129">
@@ -3262,7 +3262,7 @@
         <v>1.053230238005759</v>
       </c>
       <c r="F129" t="n">
-        <v>1.065610355769992</v>
+        <v>1.066016177905798</v>
       </c>
     </row>
     <row r="130">
@@ -3282,7 +3282,7 @@
         <v>1.053123755491053</v>
       </c>
       <c r="F130" t="n">
-        <v>1.06540244642973</v>
+        <v>1.065665980528593</v>
       </c>
     </row>
     <row r="131">
@@ -3302,7 +3302,7 @@
         <v>1.053017272976347</v>
       </c>
       <c r="F131" t="n">
-        <v>1.069899217619896</v>
+        <v>1.070057543126345</v>
       </c>
     </row>
     <row r="132">
@@ -3322,7 +3322,7 @@
         <v>1.05291079046164</v>
       </c>
       <c r="F132" t="n">
-        <v>1.069574181140661</v>
+        <v>1.069571694257259</v>
       </c>
     </row>
     <row r="133">
@@ -3342,7 +3342,7 @@
         <v>1.052804307946934</v>
       </c>
       <c r="F133" t="n">
-        <v>1.072394989624619</v>
+        <v>1.072396396612525</v>
       </c>
     </row>
     <row r="134">
@@ -3362,7 +3362,7 @@
         <v>1.052697825432228</v>
       </c>
       <c r="F134" t="n">
-        <v>1.069261324290633</v>
+        <v>1.069130594742298</v>
       </c>
     </row>
     <row r="135">
@@ -3382,7 +3382,7 @@
         <v>1.052591342917522</v>
       </c>
       <c r="F135" t="n">
-        <v>1.071371665935516</v>
+        <v>1.071380163810253</v>
       </c>
     </row>
     <row r="136">
@@ -3402,7 +3402,7 @@
         <v>1.052484860402816</v>
       </c>
       <c r="F136" t="n">
-        <v>1.066571464319229</v>
+        <v>1.066387854814529</v>
       </c>
     </row>
     <row r="137">
@@ -3422,7 +3422,7 @@
         <v>1.05237837788811</v>
       </c>
       <c r="F137" t="n">
-        <v>1.070973199825287</v>
+        <v>1.071141260490417</v>
       </c>
     </row>
     <row r="138">
@@ -3442,7 +3442,7 @@
         <v>1.052271895373404</v>
       </c>
       <c r="F138" t="n">
-        <v>1.072133839611411</v>
+        <v>1.072123419384956</v>
       </c>
     </row>
     <row r="139">
@@ -3462,7 +3462,7 @@
         <v>1.052165412858697</v>
       </c>
       <c r="F139" t="n">
-        <v>1.075652985320091</v>
+        <v>1.075756204741001</v>
       </c>
     </row>
     <row r="140">
@@ -3482,7 +3482,7 @@
         <v>1.052058930343991</v>
       </c>
       <c r="F140" t="n">
-        <v>1.076775943927765</v>
+        <v>1.076625867637396</v>
       </c>
     </row>
     <row r="141">
@@ -3502,7 +3502,7 @@
         <v>1.051952447829285</v>
       </c>
       <c r="F141" t="n">
-        <v>1.075644096081257</v>
+        <v>1.075352374145389</v>
       </c>
     </row>
     <row r="142">
@@ -3522,7 +3522,7 @@
         <v>1.051845965314579</v>
       </c>
       <c r="F142" t="n">
-        <v>1.0748423995471</v>
+        <v>1.074627309776545</v>
       </c>
     </row>
     <row r="143">
@@ -3542,7 +3542,7 @@
         <v>1.051739482799873</v>
       </c>
       <c r="F143" t="n">
-        <v>1.077738052786589</v>
+        <v>1.077870180672407</v>
       </c>
     </row>
     <row r="144">
@@ -3562,7 +3562,7 @@
         <v>1.051633000285167</v>
       </c>
       <c r="F144" t="n">
-        <v>1.076927831110954</v>
+        <v>1.076781928527355</v>
       </c>
     </row>
     <row r="145">
@@ -3582,7 +3582,7 @@
         <v>1.051526517770461</v>
       </c>
       <c r="F145" t="n">
-        <v>1.078678323279619</v>
+        <v>1.07874591291666</v>
       </c>
     </row>
     <row r="146">
@@ -3602,7 +3602,7 @@
         <v>1.051420035255755</v>
       </c>
       <c r="F146" t="n">
-        <v>1.081558609712124</v>
+        <v>1.081724468386173</v>
       </c>
     </row>
     <row r="147">
@@ -3622,7 +3622,7 @@
         <v>1.051313552741048</v>
       </c>
       <c r="F147" t="n">
-        <v>1.087752276721001</v>
+        <v>1.08808415225029</v>
       </c>
     </row>
     <row r="148">
@@ -3642,7 +3642,7 @@
         <v>1.051207070226342</v>
       </c>
       <c r="F148" t="n">
-        <v>1.086582016940117</v>
+        <v>1.086478320196867</v>
       </c>
     </row>
     <row r="149">
@@ -3662,7 +3662,7 @@
         <v>1.051100587711636</v>
       </c>
       <c r="F149" t="n">
-        <v>1.086830877785683</v>
+        <v>1.086814551243782</v>
       </c>
     </row>
     <row r="150">
@@ -3682,7 +3682,7 @@
         <v>1.05099410519693</v>
       </c>
       <c r="F150" t="n">
-        <v>1.08558730179131</v>
+        <v>1.08554944517374</v>
       </c>
     </row>
     <row r="151">
@@ -3702,7 +3702,7 @@
         <v>1.050887622682224</v>
       </c>
       <c r="F151" t="n">
-        <v>1.085169732484818</v>
+        <v>1.085206800602674</v>
       </c>
     </row>
     <row r="152">
@@ -3722,7 +3722,7 @@
         <v>1.050781140167518</v>
       </c>
       <c r="F152" t="n">
-        <v>1.081999389776587</v>
+        <v>1.081921278864145</v>
       </c>
     </row>
     <row r="153">
@@ -3742,7 +3742,7 @@
         <v>1.050674657652812</v>
       </c>
       <c r="F153" t="n">
-        <v>1.081165170582533</v>
+        <v>1.081207904427052</v>
       </c>
     </row>
     <row r="154">
@@ -3762,7 +3762,7 @@
         <v>1.050568175138106</v>
       </c>
       <c r="F154" t="n">
-        <v>1.084225398445129</v>
+        <v>1.084510869941711</v>
       </c>
     </row>
     <row r="155">
@@ -3782,7 +3782,7 @@
         <v>1.050461692623399</v>
       </c>
       <c r="F155" t="n">
-        <v>1.085621593526602</v>
+        <v>1.085759906354546</v>
       </c>
     </row>
     <row r="156">
@@ -3802,7 +3802,7 @@
         <v>1.050355210108693</v>
       </c>
       <c r="F156" t="n">
-        <v>1.085408240266442</v>
+        <v>1.085442275730968</v>
       </c>
     </row>
     <row r="157">
@@ -3822,7 +3822,7 @@
         <v>1.050248727593987</v>
       </c>
       <c r="F157" t="n">
-        <v>1.079936978407502</v>
+        <v>1.079679801063538</v>
       </c>
     </row>
     <row r="158">
@@ -3842,7 +3842,7 @@
         <v>1.050142245079281</v>
       </c>
       <c r="F158" t="n">
-        <v>1.082893997607827</v>
+        <v>1.08312725998044</v>
       </c>
     </row>
     <row r="159">
@@ -3862,7 +3862,7 @@
         <v>1.050035762564575</v>
       </c>
       <c r="F159" t="n">
-        <v>1.084644404293299</v>
+        <v>1.084791774650216</v>
       </c>
     </row>
     <row r="160">
@@ -3882,7 +3882,7 @@
         <v>1.049929280049869</v>
       </c>
       <c r="F160" t="n">
-        <v>1.089777038776875</v>
+        <v>1.090068218564987</v>
       </c>
     </row>
     <row r="161">
@@ -3902,7 +3902,7 @@
         <v>1.049822797535162</v>
       </c>
       <c r="F161" t="n">
-        <v>1.087757869822979</v>
+        <v>1.087594282215238</v>
       </c>
     </row>
     <row r="162">
@@ -3922,7 +3922,7 @@
         <v>1.049716315020456</v>
       </c>
       <c r="F162" t="n">
-        <v>1.086747820204496</v>
+        <v>1.086656152966619</v>
       </c>
     </row>
     <row r="163">
@@ -3942,7 +3942,7 @@
         <v>1.04960983250575</v>
       </c>
       <c r="F163" t="n">
-        <v>1.088640063874126</v>
+        <v>1.088727879112959</v>
       </c>
     </row>
     <row r="164">
@@ -3962,7 +3962,7 @@
         <v>1.049503349991044</v>
       </c>
       <c r="F164" t="n">
-        <v>1.079956899409294</v>
+        <v>1.079590633846522</v>
       </c>
     </row>
     <row r="165">
@@ -3982,7 +3982,7 @@
         <v>1.049396867476338</v>
       </c>
       <c r="F165" t="n">
-        <v>1.0761200299716</v>
+        <v>1.075981250109673</v>
       </c>
     </row>
     <row r="166">
@@ -4002,7 +4002,7 @@
         <v>1.049290384961632</v>
       </c>
       <c r="F166" t="n">
-        <v>1.073622971532345</v>
+        <v>1.073617082335949</v>
       </c>
     </row>
     <row r="167">
@@ -4022,7 +4022,7 @@
         <v>1.049183902446926</v>
       </c>
       <c r="F167" t="n">
-        <v>1.08072508161664</v>
+        <v>1.081235405194759</v>
       </c>
     </row>
     <row r="168">
@@ -4042,7 +4042,7 @@
         <v>1.049077419932219</v>
       </c>
       <c r="F168" t="n">
-        <v>1.073735784263611</v>
+        <v>1.073637152164578</v>
       </c>
     </row>
     <row r="169">
@@ -4062,7 +4062,7 @@
         <v>1.048970937417513</v>
       </c>
       <c r="F169" t="n">
-        <v>1.070454469220638</v>
+        <v>1.070531102585792</v>
       </c>
     </row>
     <row r="170">
@@ -4082,7 +4082,7 @@
         <v>1.048864454902807</v>
       </c>
       <c r="F170" t="n">
-        <v>1.073266446501017</v>
+        <v>1.073613455826044</v>
       </c>
     </row>
     <row r="171">
@@ -4102,7 +4102,7 @@
         <v>1.048757972388101</v>
       </c>
       <c r="F171" t="n">
-        <v>1.073835563889742</v>
+        <v>1.07407021589756</v>
       </c>
     </row>
     <row r="172">
@@ -4122,7 +4122,7 @@
         <v>1.048651489873395</v>
       </c>
       <c r="F172" t="n">
-        <v>1.074313070713878</v>
+        <v>1.074454401348829</v>
       </c>
     </row>
     <row r="173">
@@ -4142,7 +4142,7 @@
         <v>1.048545007358689</v>
       </c>
       <c r="F173" t="n">
-        <v>1.070166859734058</v>
+        <v>1.070139622386694</v>
       </c>
     </row>
     <row r="174">
@@ -4162,7 +4162,7 @@
         <v>1.048438524843983</v>
       </c>
       <c r="F174" t="n">
-        <v>1.069108783496618</v>
+        <v>1.069124652534127</v>
       </c>
     </row>
     <row r="175">
@@ -4182,7 +4182,7 @@
         <v>1.048332042329277</v>
       </c>
       <c r="F175" t="n">
-        <v>1.073182600374222</v>
+        <v>1.073335133485794</v>
       </c>
     </row>
     <row r="176">
@@ -4202,7 +4202,7 @@
         <v>1.04822555981457</v>
       </c>
       <c r="F176" t="n">
-        <v>1.071143545575142</v>
+        <v>1.071133009786606</v>
       </c>
     </row>
     <row r="177">
@@ -4222,7 +4222,7 @@
         <v>1.048119077299864</v>
       </c>
       <c r="F177" t="n">
-        <v>1.067796108498573</v>
+        <v>1.067787579317093</v>
       </c>
     </row>
     <row r="178">
@@ -4242,7 +4242,7 @@
         <v>1.048012594785158</v>
       </c>
       <c r="F178" t="n">
-        <v>1.069928177969456</v>
+        <v>1.070061251542568</v>
       </c>
     </row>
     <row r="179">
@@ -4262,7 +4262,7 @@
         <v>1.047906112270452</v>
       </c>
       <c r="F179" t="n">
-        <v>1.070914779752493</v>
+        <v>1.070954048410058</v>
       </c>
     </row>
     <row r="180">
@@ -4282,7 +4282,7 @@
         <v>1.047799629755746</v>
       </c>
       <c r="F180" t="n">
-        <v>1.073436665557027</v>
+        <v>1.073517895790339</v>
       </c>
     </row>
     <row r="181">
@@ -4302,7 +4302,7 @@
         <v>1.04769314724104</v>
       </c>
       <c r="F181" t="n">
-        <v>1.074194836513996</v>
+        <v>1.074166399919987</v>
       </c>
     </row>
     <row r="182">
@@ -4322,7 +4322,7 @@
         <v>1.047586664726334</v>
       </c>
       <c r="F182" t="n">
-        <v>1.078105222392082</v>
+        <v>1.078209712314606</v>
       </c>
     </row>
     <row r="183">
@@ -4342,7 +4342,7 @@
         <v>1.047480182211628</v>
       </c>
       <c r="F183" t="n">
-        <v>1.080674383169413</v>
+        <v>1.080606980413198</v>
       </c>
     </row>
     <row r="184">
@@ -4362,7 +4362,7 @@
         <v>1.047373699696921</v>
       </c>
       <c r="F184" t="n">
-        <v>1.083437783687115</v>
+        <v>1.083373050196171</v>
       </c>
     </row>
     <row r="185">
@@ -4382,7 +4382,7 @@
         <v>1.047267217182215</v>
       </c>
       <c r="F185" t="n">
-        <v>1.082548234891892</v>
+        <v>1.082191300469637</v>
       </c>
     </row>
     <row r="186">
@@ -4402,7 +4402,7 @@
         <v>1.047160734667509</v>
       </c>
       <c r="F186" t="n">
-        <v>1.08140615044713</v>
+        <v>1.081248034357429</v>
       </c>
     </row>
     <row r="187">
@@ -4422,7 +4422,7 @@
         <v>1.047054252152803</v>
       </c>
       <c r="F187" t="n">
-        <v>1.082609370998144</v>
+        <v>1.082648742887974</v>
       </c>
     </row>
     <row r="188">
@@ -4442,7 +4442,7 @@
         <v>1.046947769638097</v>
       </c>
       <c r="F188" t="n">
-        <v>1.086215784986019</v>
+        <v>1.086420202815533</v>
       </c>
     </row>
     <row r="189">
@@ -4462,7 +4462,7 @@
         <v>1.046841287123391</v>
       </c>
       <c r="F189" t="n">
-        <v>1.089975478670597</v>
+        <v>1.090081550981999</v>
       </c>
     </row>
     <row r="190">
@@ -4482,7 +4482,7 @@
         <v>1.046734804608684</v>
       </c>
       <c r="F190" t="n">
-        <v>1.08942343983233</v>
+        <v>1.089303305508494</v>
       </c>
     </row>
     <row r="191">
@@ -4502,7 +4502,7 @@
         <v>1.046628322093978</v>
       </c>
       <c r="F191" t="n">
-        <v>1.089675072951913</v>
+        <v>1.089689818629026</v>
       </c>
     </row>
     <row r="192">
@@ -4522,7 +4522,7 @@
         <v>1.046521839579272</v>
       </c>
       <c r="F192" t="n">
-        <v>1.093497074993253</v>
+        <v>1.093724695583582</v>
       </c>
     </row>
     <row r="193">
@@ -4542,7 +4542,7 @@
         <v>1.046415357064566</v>
       </c>
       <c r="F193" t="n">
-        <v>1.089639230314493</v>
+        <v>1.089374210759997</v>
       </c>
     </row>
     <row r="194">
@@ -4562,7 +4562,7 @@
         <v>1.04630887454986</v>
       </c>
       <c r="F194" t="n">
-        <v>1.088053273456693</v>
+        <v>1.087993345032334</v>
       </c>
     </row>
     <row r="195">
@@ -4582,7 +4582,7 @@
         <v>1.046202392035154</v>
       </c>
       <c r="F195" t="n">
-        <v>1.088779309667349</v>
+        <v>1.088918217183352</v>
       </c>
     </row>
     <row r="196">
@@ -4602,7 +4602,7 @@
         <v>1.046095909520448</v>
       </c>
       <c r="F196" t="n">
-        <v>1.085377884116769</v>
+        <v>1.085290923781991</v>
       </c>
     </row>
     <row r="197">
@@ -4622,7 +4622,7 @@
         <v>1.045989427005741</v>
       </c>
       <c r="F197" t="n">
-        <v>1.083647535783052</v>
+        <v>1.083644628670812</v>
       </c>
     </row>
     <row r="198">
@@ -4642,7 +4642,7 @@
         <v>1.045882944491035</v>
       </c>
       <c r="F198" t="n">
-        <v>1.084235509795547</v>
+        <v>1.084398662773967</v>
       </c>
     </row>
     <row r="199">
@@ -4662,7 +4662,7 @@
         <v>1.045776461976329</v>
       </c>
       <c r="F199" t="n">
-        <v>1.08524740475893</v>
+        <v>1.085428951976299</v>
       </c>
     </row>
     <row r="200">
@@ -4682,7 +4682,7 @@
         <v>1.045669979461623</v>
       </c>
       <c r="F200" t="n">
-        <v>1.081938435076475</v>
+        <v>1.08185535910964</v>
       </c>
     </row>
     <row r="201">
@@ -4702,7 +4702,7 @@
         <v>1.045563496946917</v>
       </c>
       <c r="F201" t="n">
-        <v>1.081185173778534</v>
+        <v>1.081220045047402</v>
       </c>
     </row>
     <row r="202">
@@ -4722,7 +4722,7 @@
         <v>1.045457014432211</v>
       </c>
       <c r="F202" t="n">
-        <v>1.082354995061159</v>
+        <v>1.082488759109974</v>
       </c>
     </row>
     <row r="203">
@@ -4742,7 +4742,7 @@
         <v>1.045350531917505</v>
       </c>
       <c r="F203" t="n">
-        <v>1.078705114561319</v>
+        <v>1.078575147997737</v>
       </c>
     </row>
     <row r="204">
@@ -4762,7 +4762,7 @@
         <v>1.045244049402799</v>
       </c>
       <c r="F204" t="n">
-        <v>1.090415137042403</v>
+        <v>1.091042745969296</v>
       </c>
     </row>
     <row r="205">
@@ -4782,7 +4782,7 @@
         <v>1.045137566888092</v>
       </c>
       <c r="F205" t="n">
-        <v>1.094559459590912</v>
+        <v>1.094649654585123</v>
       </c>
     </row>
     <row r="206">
@@ -4802,7 +4802,7 @@
         <v>1.045031084373386</v>
       </c>
       <c r="F206" t="n">
-        <v>1.092779279537201</v>
+        <v>1.092519722254276</v>
       </c>
     </row>
     <row r="207">
@@ -4822,7 +4822,7 @@
         <v>1.04492460185868</v>
       </c>
       <c r="F207" t="n">
-        <v>1.092055425338745</v>
+        <v>1.091891319773197</v>
       </c>
     </row>
     <row r="208">
@@ -4842,7 +4842,7 @@
         <v>1.044818119343974</v>
       </c>
       <c r="F208" t="n">
-        <v>1.091652517763376</v>
+        <v>1.091551586191654</v>
       </c>
     </row>
     <row r="209">
@@ -4862,7 +4862,7 @@
         <v>1.044711636829268</v>
       </c>
       <c r="F209" t="n">
-        <v>1.091365332487226</v>
+        <v>1.091308079460263</v>
       </c>
     </row>
     <row r="210">
@@ -4882,7 +4882,7 @@
         <v>1.044605154314562</v>
       </c>
       <c r="F210" t="n">
-        <v>1.092754392504692</v>
+        <v>1.092794719040394</v>
       </c>
     </row>
     <row r="211">
@@ -4902,7 +4902,7 @@
         <v>1.044498671799856</v>
       </c>
       <c r="F211" t="n">
-        <v>1.098710459478497</v>
+        <v>1.098967907887697</v>
       </c>
     </row>
     <row r="212">
@@ -4922,7 +4922,7 @@
         <v>1.04439218928515</v>
       </c>
       <c r="F212" t="n">
-        <v>1.100896979970932</v>
+        <v>1.100887397196293</v>
       </c>
     </row>
     <row r="213">
@@ -4942,7 +4942,7 @@
         <v>1.044285706770443</v>
       </c>
       <c r="F213" t="n">
-        <v>1.097210066381693</v>
+        <v>1.09692542167604</v>
       </c>
     </row>
     <row r="214">
@@ -4962,7 +4962,7 @@
         <v>1.044179224255737</v>
       </c>
       <c r="F214" t="n">
-        <v>1.102137486028671</v>
+        <v>1.102347535028458</v>
       </c>
     </row>
     <row r="215">
@@ -4982,7 +4982,7 @@
         <v>1.044072741741031</v>
       </c>
       <c r="F215" t="n">
-        <v>1.107895730395317</v>
+        <v>1.108108998456001</v>
       </c>
     </row>
     <row r="216">
@@ -5002,7 +5002,7 @@
         <v>1.043966259226325</v>
       </c>
       <c r="F216" t="n">
-        <v>1.112428247452974</v>
+        <v>1.112533913731575</v>
       </c>
     </row>
     <row r="217">
@@ -5022,7 +5022,7 @@
         <v>1.043859776711619</v>
       </c>
       <c r="F217" t="n">
-        <v>1.114856291655302</v>
+        <v>1.114823791368008</v>
       </c>
     </row>
     <row r="218">
@@ -5042,7 +5042,7 @@
         <v>1.043753294196913</v>
       </c>
       <c r="F218" t="n">
-        <v>1.111247085469961</v>
+        <v>1.11100702008903</v>
       </c>
     </row>
     <row r="219">
@@ -5062,7 +5062,7 @@
         <v>1.043646811682206</v>
       </c>
       <c r="F219" t="n">
-        <v>1.118751289277077</v>
+        <v>1.119192404141426</v>
       </c>
     </row>
     <row r="220">
@@ -5082,7 +5082,7 @@
         <v>1.0435403291675</v>
       </c>
       <c r="F220" t="n">
-        <v>1.116148740828037</v>
+        <v>1.116026140118837</v>
       </c>
     </row>
     <row r="221">
@@ -5102,7 +5102,7 @@
         <v>1.043433846652794</v>
       </c>
       <c r="F221" t="n">
-        <v>1.118236144380569</v>
+        <v>1.118419066090584</v>
       </c>
     </row>
     <row r="222">
@@ -5122,7 +5122,7 @@
         <v>1.043327364138088</v>
       </c>
       <c r="F222" t="n">
-        <v>1.111864535349607</v>
+        <v>1.111716278173327</v>
       </c>
     </row>
     <row r="223">
@@ -5142,7 +5142,7 @@
         <v>1.043220881623382</v>
       </c>
       <c r="F223" t="n">
-        <v>1.107472278677821</v>
+        <v>1.107479145614505</v>
       </c>
     </row>
     <row r="224">
@@ -5162,7 +5162,7 @@
         <v>1.043114399108676</v>
       </c>
       <c r="F224" t="n">
-        <v>1.104399571700692</v>
+        <v>1.104484518994689</v>
       </c>
     </row>
     <row r="225">
@@ -5182,7 +5182,7 @@
         <v>1.04300791659397</v>
       </c>
       <c r="F225" t="n">
-        <v>1.106927904582024</v>
+        <v>1.107248019618988</v>
       </c>
     </row>
     <row r="226">
@@ -5202,7 +5202,7 @@
         <v>1.042901434079264</v>
       </c>
       <c r="F226" t="n">
-        <v>1.104177387025356</v>
+        <v>1.104246570338011</v>
       </c>
     </row>
     <row r="227">
@@ -5222,7 +5222,7 @@
         <v>1.042794951564557</v>
       </c>
       <c r="F227" t="n">
-        <v>1.107994780415297</v>
+        <v>1.108347888457775</v>
       </c>
     </row>
     <row r="228">
@@ -5242,7 +5242,7 @@
         <v>1.042688469049851</v>
       </c>
       <c r="F228" t="n">
-        <v>1.110938147220611</v>
+        <v>1.111167945668697</v>
       </c>
     </row>
     <row r="229">
@@ -5262,7 +5262,7 @@
         <v>1.042581986535145</v>
       </c>
       <c r="F229" t="n">
-        <v>1.108473198775649</v>
+        <v>1.108395956023932</v>
       </c>
     </row>
     <row r="230">
@@ -5282,7 +5282,7 @@
         <v>1.042475504020439</v>
       </c>
       <c r="F230" t="n">
-        <v>1.103196914172173</v>
+        <v>1.102993287944794</v>
       </c>
     </row>
     <row r="231">
@@ -5302,7 +5302,7 @@
         <v>1.042369021505733</v>
       </c>
       <c r="F231" t="n">
-        <v>1.10157006157279</v>
+        <v>1.101496834855676</v>
       </c>
     </row>
     <row r="232">
@@ -5322,7 +5322,7 @@
         <v>1.042262538991027</v>
       </c>
       <c r="F232" t="n">
-        <v>1.101153608436584</v>
+        <v>1.10114632171154</v>
       </c>
     </row>
     <row r="233">
@@ -5342,7 +5342,7 @@
         <v>1.042156056476321</v>
       </c>
       <c r="F233" t="n">
-        <v>1.107052436796427</v>
+        <v>1.107327449791431</v>
       </c>
     </row>
     <row r="234">
@@ -5362,7 +5362,7 @@
         <v>1.042049573961614</v>
       </c>
       <c r="F234" t="n">
-        <v>1.107200199282169</v>
+        <v>1.107209374141693</v>
       </c>
     </row>
     <row r="235">
@@ -5382,7 +5382,7 @@
         <v>1.041943091446908</v>
       </c>
       <c r="F235" t="n">
-        <v>1.11281497746706</v>
+        <v>1.112996524393559</v>
       </c>
     </row>
     <row r="236">
@@ -5402,7 +5402,7 @@
         <v>1.041836608932202</v>
       </c>
       <c r="F236" t="n">
-        <v>1.111018970012665</v>
+        <v>1.1108657669276</v>
       </c>
     </row>
     <row r="237">
@@ -5422,7 +5422,7 @@
         <v>1.041730126417496</v>
       </c>
       <c r="F237" t="n">
-        <v>1.111438379378319</v>
+        <v>1.111362441205978</v>
       </c>
     </row>
     <row r="238">
@@ -5442,7 +5442,7 @@
         <v>1.04162364390279</v>
       </c>
       <c r="F238" t="n">
-        <v>1.115603439748287</v>
+        <v>1.115706892213225</v>
       </c>
     </row>
     <row r="239">
@@ -5462,7 +5462,7 @@
         <v>1.041517161388084</v>
       </c>
       <c r="F239" t="n">
-        <v>1.116056253910065</v>
+        <v>1.115933565795421</v>
       </c>
     </row>
     <row r="240">
@@ -5482,7 +5482,7 @@
         <v>1.041410678873378</v>
       </c>
       <c r="F240" t="n">
-        <v>1.111199473495484</v>
+        <v>1.110889593091011</v>
       </c>
     </row>
     <row r="241">
@@ -5502,7 +5502,7 @@
         <v>1.041304196358672</v>
       </c>
       <c r="F241" t="n">
-        <v>1.117255657975674</v>
+        <v>1.117554390753507</v>
       </c>
     </row>
     <row r="242">
@@ -5522,7 +5522,7 @@
         <v>1.041197713843965</v>
       </c>
       <c r="F242" t="n">
-        <v>1.11339937173605</v>
+        <v>1.113079708429575</v>
       </c>
     </row>
     <row r="243">
@@ -5542,7 +5542,7 @@
         <v>1.041091231329259</v>
       </c>
       <c r="F243" t="n">
-        <v>1.11703492174387</v>
+        <v>1.117224015628099</v>
       </c>
     </row>
     <row r="244">
@@ -5562,7 +5562,7 @@
         <v>1.040984748814553</v>
       </c>
       <c r="F244" t="n">
-        <v>1.115879534418583</v>
+        <v>1.115766065576076</v>
       </c>
     </row>
     <row r="245">
@@ -5582,7 +5582,7 @@
         <v>1.040878266299847</v>
       </c>
       <c r="F245" t="n">
-        <v>1.113403985924721</v>
+        <v>1.113291625937223</v>
       </c>
     </row>
     <row r="246">
@@ -5602,7 +5602,7 @@
         <v>1.040771783785141</v>
       </c>
       <c r="F246" t="n">
-        <v>1.106633864622712</v>
+        <v>1.106378948007226</v>
       </c>
     </row>
     <row r="247">
@@ -5622,7 +5622,7 @@
         <v>1.040665301270435</v>
       </c>
       <c r="F247" t="n">
-        <v>1.104474041401148</v>
+        <v>1.104462518064976</v>
       </c>
     </row>
     <row r="248">
@@ -5642,7 +5642,7 @@
         <v>1.040558818755728</v>
       </c>
       <c r="F248" t="n">
-        <v>1.102519120875001</v>
+        <v>1.10258143424809</v>
       </c>
     </row>
     <row r="249">
@@ -5662,7 +5662,7 @@
         <v>1.040452336241022</v>
       </c>
       <c r="F249" t="n">
-        <v>1.097214762926102</v>
+        <v>1.097182839288712</v>
       </c>
     </row>
     <row r="250">
@@ -5682,7 +5682,7 @@
         <v>1.040345853726316</v>
       </c>
       <c r="F250" t="n">
-        <v>1.097209226278067</v>
+        <v>1.097525279420614</v>
       </c>
     </row>
     <row r="251">
@@ -5702,7 +5702,7 @@
         <v>1.04023937121161</v>
       </c>
       <c r="F251" t="n">
-        <v>1.09792125743866</v>
+        <v>1.098318368692398</v>
       </c>
     </row>
     <row r="252">
@@ -5722,7 +5722,7 @@
         <v>1.040132888696904</v>
       </c>
       <c r="F252" t="n">
-        <v>1.093880449781418</v>
+        <v>1.094019467048645</v>
       </c>
     </row>
     <row r="253">
@@ -5742,7 +5742,7 @@
         <v>1.040026406182198</v>
       </c>
       <c r="F253" t="n">
-        <v>1.093663005008698</v>
+        <v>1.093890493830443</v>
       </c>
     </row>
     <row r="254">
@@ -5762,7 +5762,7 @@
         <v>1.039919923667492</v>
       </c>
       <c r="F254" t="n">
-        <v>1.093585976967812</v>
+        <v>1.093808489494324</v>
       </c>
     </row>
     <row r="255">
@@ -5782,7 +5782,7 @@
         <v>1.039813441152786</v>
       </c>
       <c r="F255" t="n">
-        <v>1.090745801818371</v>
+        <v>1.090936947548389</v>
       </c>
     </row>
     <row r="256">
@@ -5802,7 +5802,7 @@
         <v>1.039706958638079</v>
       </c>
       <c r="F256" t="n">
-        <v>1.089061901850104</v>
+        <v>1.089256848222017</v>
       </c>
     </row>
     <row r="257">
@@ -5822,7 +5822,7 @@
         <v>1.039600476123373</v>
       </c>
       <c r="F257" t="n">
-        <v>1.086095842480659</v>
+        <v>1.086429707593918</v>
       </c>
     </row>
     <row r="258">
@@ -5842,7 +5842,7 @@
         <v>1.039493993608667</v>
       </c>
       <c r="F258" t="n">
-        <v>1.082923764288426</v>
+        <v>1.083281316876411</v>
       </c>
     </row>
     <row r="259">
@@ -5862,7 +5862,7 @@
         <v>1.039387511093961</v>
       </c>
       <c r="F259" t="n">
-        <v>1.086366249882579</v>
+        <v>1.086775938876867</v>
       </c>
     </row>
     <row r="260">
@@ -5882,7 +5882,7 @@
         <v>1.039281028579255</v>
       </c>
       <c r="F260" t="n">
-        <v>1.081501422650814</v>
+        <v>1.081819022977352</v>
       </c>
     </row>
     <row r="261">
@@ -5902,7 +5902,7 @@
         <v>1.039174546064549</v>
       </c>
       <c r="F261" t="n">
-        <v>1.079801793497801</v>
+        <v>1.080222059774399</v>
       </c>
     </row>
     <row r="262">
@@ -5922,7 +5922,7 @@
         <v>1.039068063549843</v>
       </c>
       <c r="F262" t="n">
-        <v>1.078320782052279</v>
+        <v>1.07870687640667</v>
       </c>
     </row>
     <row r="263">
@@ -5942,7 +5942,7 @@
         <v>1.038961581035136</v>
       </c>
       <c r="F263" t="n">
-        <v>1.082048270190358</v>
+        <v>1.08265712282598</v>
       </c>
     </row>
     <row r="264">
@@ -5962,7 +5962,7 @@
         <v>1.03885509852043</v>
       </c>
       <c r="F264" t="n">
-        <v>1.079692923686504</v>
+        <v>1.079809890980721</v>
       </c>
     </row>
     <row r="265">
@@ -5982,7 +5982,7 @@
         <v>1.038748616005724</v>
       </c>
       <c r="F265" t="n">
-        <v>1.080994776749611</v>
+        <v>1.081374912843704</v>
       </c>
     </row>
     <row r="266">
@@ -6002,7 +6002,7 @@
         <v>1.038642133491018</v>
       </c>
       <c r="F266" t="n">
-        <v>1.081393000963926</v>
+        <v>1.081551310428381</v>
       </c>
     </row>
     <row r="267">
@@ -6022,7 +6022,7 @@
         <v>1.038535650976312</v>
       </c>
       <c r="F267" t="n">
-        <v>1.084808183502555</v>
+        <v>1.085111762649417</v>
       </c>
     </row>
     <row r="268">
@@ -6042,7 +6042,7 @@
         <v>1.038429168461606</v>
       </c>
       <c r="F268" t="n">
-        <v>1.087638703663945</v>
+        <v>1.087665619568825</v>
       </c>
     </row>
     <row r="269">
@@ -6062,7 +6062,7 @@
         <v>1.0383226859469</v>
       </c>
       <c r="F269" t="n">
-        <v>1.083614909162521</v>
+        <v>1.083284367170334</v>
       </c>
     </row>
     <row r="270">
@@ -6082,7 +6082,7 @@
         <v>1.038216203432194</v>
       </c>
       <c r="F270" t="n">
-        <v>1.087075517807007</v>
+        <v>1.087229555740356</v>
       </c>
     </row>
     <row r="271">
@@ -6102,7 +6102,7 @@
         <v>1.038109720917487</v>
       </c>
       <c r="F271" t="n">
-        <v>1.09212230576992</v>
+        <v>1.092225484900475</v>
       </c>
     </row>
     <row r="272">
@@ -6122,7 +6122,7 @@
         <v>1.038003238402781</v>
       </c>
       <c r="F272" t="n">
-        <v>1.073349197909832</v>
+        <v>1.072749946457147</v>
       </c>
     </row>
     <row r="273">
@@ -6142,7 +6142,7 @@
         <v>1.037896755888075</v>
       </c>
       <c r="F273" t="n">
-        <v>1.079870103291273</v>
+        <v>1.080199873781204</v>
       </c>
     </row>
     <row r="274">
@@ -6162,7 +6162,7 @@
         <v>1.037790273373369</v>
       </c>
       <c r="F274" t="n">
-        <v>1.071854729704857</v>
+        <v>1.071784333193302</v>
       </c>
     </row>
     <row r="275">
@@ -6182,7 +6182,7 @@
         <v>1.037683790858663</v>
       </c>
       <c r="F275" t="n">
-        <v>1.065440759825707</v>
+        <v>1.065598141890764</v>
       </c>
     </row>
     <row r="276">
@@ -6202,7 +6202,7 @@
         <v>1.037577308343957</v>
       </c>
       <c r="F276" t="n">
-        <v>1.06232965282023</v>
+        <v>1.062819712446928</v>
       </c>
     </row>
     <row r="277">
@@ -6222,7 +6222,7 @@
         <v>1.03747082582925</v>
       </c>
       <c r="F277" t="n">
-        <v>1.056141087549925</v>
+        <v>1.056851818031072</v>
       </c>
     </row>
     <row r="278">
@@ -6242,7 +6242,7 @@
         <v>1.037364343314544</v>
       </c>
       <c r="F278" t="n">
-        <v>1.052912840001583</v>
+        <v>1.053987337040901</v>
       </c>
     </row>
     <row r="279">
@@ -6262,7 +6262,7 @@
         <v>1.037257860799838</v>
       </c>
       <c r="F279" t="n">
-        <v>1.054151620497704</v>
+        <v>1.055464784798622</v>
       </c>
     </row>
     <row r="280">
@@ -6282,7 +6282,7 @@
         <v>1.037151378285132</v>
       </c>
       <c r="F280" t="n">
-        <v>1.061569772024155</v>
+        <v>1.062900211639404</v>
       </c>
     </row>
     <row r="281">
@@ -6302,7 +6302,7 @@
         <v>1.037044895770426</v>
       </c>
       <c r="F281" t="n">
-        <v>1.060322753584385</v>
+        <v>1.061417087852955</v>
       </c>
     </row>
     <row r="282">
@@ -6322,7 +6322,7 @@
         <v>1.03693841325572</v>
       </c>
       <c r="F282" t="n">
-        <v>1.054659427828789</v>
+        <v>1.055803492593765</v>
       </c>
     </row>
     <row r="283">
@@ -6342,7 +6342,7 @@
         <v>1.036831930741014</v>
       </c>
       <c r="F283" t="n">
-        <v>1.047201747703552</v>
+        <v>1.048351611804962</v>
       </c>
     </row>
     <row r="284">
@@ -6362,7 +6362,7 @@
         <v>1.036725448226308</v>
       </c>
       <c r="F284" t="n">
-        <v>1.041674963271618</v>
+        <v>1.04283227022171</v>
       </c>
     </row>
     <row r="285">
@@ -6382,7 +6382,7 @@
         <v>1.036618965711601</v>
       </c>
       <c r="F285" t="n">
-        <v>1.049749937969446</v>
+        <v>1.050228763791323</v>
       </c>
     </row>
     <row r="286">
@@ -6402,7 +6402,7 @@
         <v>1.036512483196895</v>
       </c>
       <c r="F286" t="n">
-        <v>1.048860605521202</v>
+        <v>1.049797912917137</v>
       </c>
     </row>
     <row r="287">
@@ -6422,7 +6422,7 @@
         <v>1.036406000682189</v>
       </c>
       <c r="F287" t="n">
-        <v>1.05505864633441</v>
+        <v>1.056114794883728</v>
       </c>
     </row>
     <row r="288">
@@ -6442,7 +6442,7 @@
         <v>1.036299518167483</v>
       </c>
       <c r="F288" t="n">
-        <v>1.05460981906712</v>
+        <v>1.0554233201015</v>
       </c>
     </row>
     <row r="289">
@@ -6462,7 +6462,7 @@
         <v>1.036193035652777</v>
       </c>
       <c r="F289" t="n">
-        <v>1.056666409111023</v>
+        <v>1.057320868301392</v>
       </c>
     </row>
     <row r="290">
@@ -6482,7 +6482,7 @@
         <v>1.036086553138071</v>
       </c>
       <c r="F290" t="n">
-        <v>1.051117913453579</v>
+        <v>1.050801276199818</v>
       </c>
     </row>
     <row r="291">
@@ -6502,7 +6502,7 @@
         <v>1.035980070623365</v>
       </c>
       <c r="F291" t="n">
-        <v>1.050773150293827</v>
+        <v>1.051213553570509</v>
       </c>
     </row>
     <row r="292">
@@ -6522,7 +6522,7 @@
         <v>1.035873588108658</v>
       </c>
       <c r="F292" t="n">
-        <v>1.051049559953213</v>
+        <v>1.051298362526894</v>
       </c>
     </row>
     <row r="293">
@@ -6542,7 +6542,7 @@
         <v>1.035767105593952</v>
       </c>
       <c r="F293" t="n">
-        <v>1.057234814912081</v>
+        <v>1.058165319040418</v>
       </c>
     </row>
     <row r="294">
@@ -6562,7 +6562,7 @@
         <v>1.035660623079246</v>
       </c>
       <c r="F294" t="n">
-        <v>1.057036081820727</v>
+        <v>1.056839480140805</v>
       </c>
     </row>
     <row r="295">
@@ -6582,7 +6582,7 @@
         <v>1.03555414056454</v>
       </c>
       <c r="F295" t="n">
-        <v>1.055737990403175</v>
+        <v>1.055604508620501</v>
       </c>
     </row>
     <row r="296">
@@ -6602,7 +6602,7 @@
         <v>1.035447658049834</v>
       </c>
       <c r="F296" t="n">
-        <v>1.053024484405518</v>
+        <v>1.052863111381531</v>
       </c>
     </row>
     <row r="297">
@@ -6622,7 +6622,7 @@
         <v>1.035341175535128</v>
       </c>
       <c r="F297" t="n">
-        <v>1.049670135040283</v>
+        <v>1.049604200735092</v>
       </c>
     </row>
     <row r="298">
@@ -6642,7 +6642,7 @@
         <v>1.035234693020422</v>
       </c>
       <c r="F298" t="n">
-        <v>1.046650829287767</v>
+        <v>1.04666548995018</v>
       </c>
     </row>
     <row r="299">
@@ -6662,7 +6662,7 @@
         <v>1.035128210505716</v>
       </c>
       <c r="F299" t="n">
-        <v>1.05004264513135</v>
+        <v>1.050287554117441</v>
       </c>
     </row>
     <row r="300">
@@ -6682,7 +6682,7 @@
         <v>1.035021727991009</v>
       </c>
       <c r="F300" t="n">
-        <v>1.051220175842643</v>
+        <v>1.051340876181722</v>
       </c>
     </row>
     <row r="301">
@@ -6702,7 +6702,7 @@
         <v>1.034915245476303</v>
       </c>
       <c r="F301" t="n">
-        <v>1.04900726020515</v>
+        <v>1.048965488943458</v>
       </c>
     </row>
     <row r="302">
@@ -6722,7 +6722,7 @@
         <v>1.034808762961597</v>
       </c>
       <c r="F302" t="n">
-        <v>1.034886251104474</v>
+        <v>1.034628097525835</v>
       </c>
     </row>
     <row r="303">
@@ -6742,7 +6742,7 @@
         <v>1.034702280446891</v>
       </c>
       <c r="F303" t="n">
-        <v>1.036100981687307</v>
+        <v>1.03642122556448</v>
       </c>
     </row>
     <row r="304">
@@ -6762,7 +6762,7 @@
         <v>1.034595797932185</v>
       </c>
       <c r="F304" t="n">
-        <v>1.042882847206593</v>
+        <v>1.043372514692545</v>
       </c>
     </row>
     <row r="305">
@@ -6782,7 +6782,7 @@
         <v>1.034489315417479</v>
       </c>
       <c r="F305" t="n">
-        <v>1.040743213605881</v>
+        <v>1.040878794155121</v>
       </c>
     </row>
     <row r="306">
@@ -6802,7 +6802,7 @@
         <v>1.034382832902772</v>
       </c>
       <c r="F306" t="n">
-        <v>1.038639176174402</v>
+        <v>1.038605131819248</v>
       </c>
     </row>
     <row r="307">
@@ -6822,7 +6822,7 @@
         <v>1.034276350388066</v>
       </c>
       <c r="F307" t="n">
-        <v>1.042301069424152</v>
+        <v>1.042437359310389</v>
       </c>
     </row>
     <row r="308">
@@ -6842,7 +6842,7 @@
         <v>1.03416986787336</v>
       </c>
       <c r="F308" t="n">
-        <v>1.042342476368546</v>
+        <v>1.042348813638091</v>
       </c>
     </row>
     <row r="309">
@@ -6862,7 +6862,7 @@
         <v>1.034063385358654</v>
       </c>
       <c r="F309" t="n">
-        <v>1.040399736943245</v>
+        <v>1.040401101261377</v>
       </c>
     </row>
     <row r="310">
@@ -6882,7 +6882,7 @@
         <v>1.033956902843948</v>
       </c>
       <c r="F310" t="n">
-        <v>1.034819412939549</v>
+        <v>1.034825951280594</v>
       </c>
     </row>
     <row r="311">
@@ -6902,7 +6902,7 @@
         <v>1.033850420329242</v>
       </c>
       <c r="F311" t="n">
-        <v>1.026561795969009</v>
+        <v>1.026790900735855</v>
       </c>
     </row>
     <row r="312">
@@ -6922,7 +6922,7 @@
         <v>1.033743937814536</v>
       </c>
       <c r="F312" t="n">
-        <v>1.030736284899711</v>
+        <v>1.030968766608238</v>
       </c>
     </row>
     <row r="313">
@@ -6942,7 +6942,7 @@
         <v>1.03363745529983</v>
       </c>
       <c r="F313" t="n">
-        <v>1.038664554710388</v>
+        <v>1.038952013576031</v>
       </c>
     </row>
     <row r="314">
@@ -6962,7 +6962,7 @@
         <v>1.033530972785123</v>
       </c>
       <c r="F314" t="n">
-        <v>1.034086793221235</v>
+        <v>1.034153355563879</v>
       </c>
     </row>
     <row r="315">
@@ -6982,7 +6982,7 @@
         <v>1.033424490270417</v>
       </c>
       <c r="F315" t="n">
-        <v>1.031932523369789</v>
+        <v>1.032064619123936</v>
       </c>
     </row>
     <row r="316">
@@ -7002,7 +7002,7 @@
         <v>1.033318007755711</v>
       </c>
       <c r="F316" t="n">
-        <v>1.030030442117453</v>
+        <v>1.030204168515205</v>
       </c>
     </row>
     <row r="317">
@@ -7022,7 +7022,7 @@
         <v>1.033211525241005</v>
       </c>
       <c r="F317" t="n">
-        <v>1.024681081953049</v>
+        <v>1.024905663524866</v>
       </c>
     </row>
     <row r="318">
@@ -7042,7 +7042,7 @@
         <v>1.033105042726299</v>
       </c>
       <c r="F318" t="n">
-        <v>1.023782982396483</v>
+        <v>1.024121108840704</v>
       </c>
     </row>
     <row r="319">
@@ -7062,7 +7062,7 @@
         <v>1.032998560211593</v>
       </c>
       <c r="F319" t="n">
-        <v>1.030276224768162</v>
+        <v>1.030603363519907</v>
       </c>
     </row>
     <row r="320">
@@ -7082,7 +7082,7 @@
         <v>1.032892077696887</v>
       </c>
       <c r="F320" t="n">
-        <v>1.028884916923642</v>
+        <v>1.029010700272322</v>
       </c>
     </row>
     <row r="321">
@@ -7102,7 +7102,7 @@
         <v>1.03278559518218</v>
       </c>
       <c r="F321" t="n">
-        <v>1.0300079151541</v>
+        <v>1.030145831460357</v>
       </c>
     </row>
     <row r="322">
@@ -7122,7 +7122,7 @@
         <v>1.032679112667474</v>
       </c>
       <c r="F322" t="n">
-        <v>1.027195109685659</v>
+        <v>1.02717123832941</v>
       </c>
     </row>
     <row r="323">
@@ -7142,7 +7142,7 @@
         <v>1.032572630152768</v>
       </c>
       <c r="F323" t="n">
-        <v>1.039666219885349</v>
+        <v>1.040151086606979</v>
       </c>
     </row>
     <row r="324">
@@ -7162,7 +7162,7 @@
         <v>1.032466147638062</v>
       </c>
       <c r="F324" t="n">
-        <v>1.042340869137645</v>
+        <v>1.042264671335816</v>
       </c>
     </row>
     <row r="325">
@@ -7182,7 +7182,7 @@
         <v>1.032359665123356</v>
       </c>
       <c r="F325" t="n">
-        <v>1.040856764869094</v>
+        <v>1.04066317933023</v>
       </c>
     </row>
     <row r="326">
@@ -7202,7 +7202,7 @@
         <v>1.03225318260865</v>
       </c>
       <c r="F326" t="n">
-        <v>1.04139513580203</v>
+        <v>1.041249566528201</v>
       </c>
     </row>
     <row r="327">
@@ -7222,7 +7222,7 @@
         <v>1.032146700093944</v>
       </c>
       <c r="F327" t="n">
-        <v>1.048778488053083</v>
+        <v>1.048952085001469</v>
       </c>
     </row>
     <row r="328">
@@ -7242,7 +7242,7 @@
         <v>1.032040217579238</v>
       </c>
       <c r="F328" t="n">
-        <v>1.048994401901364</v>
+        <v>1.048830011991262</v>
       </c>
     </row>
     <row r="329">
@@ -7262,7 +7262,7 @@
         <v>1.031933735064531</v>
       </c>
       <c r="F329" t="n">
-        <v>1.043397442835569</v>
+        <v>1.043015612823963</v>
       </c>
     </row>
     <row r="330">
@@ -7282,7 +7282,7 @@
         <v>1.031827252549825</v>
       </c>
       <c r="F330" t="n">
-        <v>1.042151989177465</v>
+        <v>1.042056831442118</v>
       </c>
     </row>
     <row r="331">
@@ -7302,7 +7302,7 @@
         <v>1.031720770035119</v>
       </c>
       <c r="F331" t="n">
-        <v>1.039240171846151</v>
+        <v>1.039135925899148</v>
       </c>
     </row>
     <row r="332">
@@ -7322,7 +7322,7 @@
         <v>1.031614287520413</v>
       </c>
       <c r="F332" t="n">
-        <v>1.03556016330421</v>
+        <v>1.03552880166471</v>
       </c>
     </row>
     <row r="333">
@@ -7342,7 +7342,7 @@
         <v>1.031507805005707</v>
       </c>
       <c r="F333" t="n">
-        <v>1.033098096001148</v>
+        <v>1.033161232548952</v>
       </c>
     </row>
     <row r="334">
@@ -7362,7 +7362,7 @@
         <v>1.031401322491001</v>
       </c>
       <c r="F334" t="n">
-        <v>1.037860941213369</v>
+        <v>1.038197137496471</v>
       </c>
     </row>
     <row r="335">
@@ -7382,7 +7382,7 @@
         <v>1.031294839976294</v>
       </c>
       <c r="F335" t="n">
-        <v>1.039677819865942</v>
+        <v>1.03988334518075</v>
       </c>
     </row>
     <row r="336">
@@ -7402,7 +7402,7 @@
         <v>1.031188357461588</v>
       </c>
       <c r="F336" t="n">
-        <v>1.038360952498913</v>
+        <v>1.038359343237877</v>
       </c>
     </row>
     <row r="337">
@@ -7422,7 +7422,7 @@
         <v>1.031081874946882</v>
       </c>
       <c r="F337" t="n">
-        <v>1.032347859070301</v>
+        <v>1.032177073971033</v>
       </c>
     </row>
     <row r="338">
@@ -7442,7 +7442,7 @@
         <v>1.030975392432176</v>
       </c>
       <c r="F338" t="n">
-        <v>1.030350998821259</v>
+        <v>1.030307139689922</v>
       </c>
     </row>
     <row r="339">
@@ -7462,7 +7462,7 @@
         <v>1.03086890991747</v>
       </c>
       <c r="F339" t="n">
-        <v>1.036036552933455</v>
+        <v>1.036240084255934</v>
       </c>
     </row>
     <row r="340">
@@ -7482,7 +7482,7 @@
         <v>1.030762427402764</v>
       </c>
       <c r="F340" t="n">
-        <v>1.038105150017738</v>
+        <v>1.038177673089504</v>
       </c>
     </row>
     <row r="341">
@@ -7502,7 +7502,7 @@
         <v>1.030655944888058</v>
       </c>
       <c r="F341" t="n">
-        <v>1.045952105058432</v>
+        <v>1.046181696715951</v>
       </c>
     </row>
     <row r="342">
@@ -7522,7 +7522,7 @@
         <v>1.030549462373352</v>
       </c>
       <c r="F342" t="n">
-        <v>1.048412579915524</v>
+        <v>1.048427583692074</v>
       </c>
     </row>
     <row r="343">
@@ -7542,7 +7542,7 @@
         <v>1.030442979858645</v>
       </c>
       <c r="F343" t="n">
-        <v>1.048095987219215</v>
+        <v>1.048034621935487</v>
       </c>
     </row>
     <row r="344">
@@ -7562,7 +7562,7 @@
         <v>1.030336497343939</v>
       </c>
       <c r="F344" t="n">
-        <v>1.044367491602898</v>
+        <v>1.044253111165166</v>
       </c>
     </row>
     <row r="345">
@@ -7582,7 +7582,7 @@
         <v>1.030230014829233</v>
       </c>
       <c r="F345" t="n">
-        <v>1.042288050406575</v>
+        <v>1.042133532863855</v>
       </c>
     </row>
     <row r="346">
@@ -7602,7 +7602,7 @@
         <v>1.030123532314527</v>
       </c>
       <c r="F346" t="n">
-        <v>1.049393911702633</v>
+        <v>1.049723558807373</v>
       </c>
     </row>
     <row r="347">
@@ -7622,7 +7622,7 @@
         <v>1.030017049799821</v>
       </c>
       <c r="F347" t="n">
-        <v>1.045920421872139</v>
+        <v>1.045732280048132</v>
       </c>
     </row>
     <row r="348">
@@ -7642,7 +7642,7 @@
         <v>1.029910567285115</v>
       </c>
       <c r="F348" t="n">
-        <v>1.046478020628691</v>
+        <v>1.046511584187746</v>
       </c>
     </row>
     <row r="349">
@@ -7662,7 +7662,7 @@
         <v>1.029804084770409</v>
       </c>
       <c r="F349" t="n">
-        <v>1.050902100455761</v>
+        <v>1.051090352518558</v>
       </c>
     </row>
     <row r="350">
@@ -7682,7 +7682,7 @@
         <v>1.029697602255703</v>
       </c>
       <c r="F350" t="n">
-        <v>1.048490669651032</v>
+        <v>1.048225067286491</v>
       </c>
     </row>
     <row r="351">
@@ -7702,7 +7702,7 @@
         <v>1.029591119740996</v>
       </c>
       <c r="F351" t="n">
-        <v>1.039730071563721</v>
+        <v>1.039353419380188</v>
       </c>
     </row>
     <row r="352">
@@ -7722,7 +7722,7 @@
         <v>1.02948463722629</v>
       </c>
       <c r="F352" t="n">
-        <v>1.03729710355401</v>
+        <v>1.037264513969421</v>
       </c>
     </row>
     <row r="353">
@@ -7742,7 +7742,7 @@
         <v>1.029378154711584</v>
       </c>
       <c r="F353" t="n">
-        <v>1.048207641682625</v>
+        <v>1.048810734472275</v>
       </c>
     </row>
     <row r="354">
@@ -7762,7 +7762,7 @@
         <v>1.029271672196878</v>
       </c>
       <c r="F354" t="n">
-        <v>1.061765620666742</v>
+        <v>1.062217728310823</v>
       </c>
     </row>
     <row r="355">
@@ -7782,7 +7782,7 @@
         <v>1.029165189682172</v>
       </c>
       <c r="F355" t="n">
-        <v>1.077946393895149</v>
+        <v>1.078159134774208</v>
       </c>
     </row>
     <row r="356">
@@ -7802,7 +7802,7 @@
         <v>1.029058707167466</v>
       </c>
       <c r="F356" t="n">
-        <v>1.078581801753044</v>
+        <v>1.078137112483978</v>
       </c>
     </row>
     <row r="357">
@@ -7822,7 +7822,7 @@
         <v>1.02895222465276</v>
       </c>
       <c r="F357" t="n">
-        <v>1.083634123404026</v>
+        <v>1.083404002057314</v>
       </c>
     </row>
     <row r="358">
@@ -7842,7 +7842,7 @@
         <v>1.028845742138053</v>
       </c>
       <c r="F358" t="n">
-        <v>1.083770206423998</v>
+        <v>1.083477417623997</v>
       </c>
     </row>
     <row r="359">
@@ -7862,7 +7862,7 @@
         <v>1.028739259623347</v>
       </c>
       <c r="F359" t="n">
-        <v>1.090974203869104</v>
+        <v>1.091070318882465</v>
       </c>
     </row>
     <row r="360">
@@ -7882,7 +7882,7 @@
         <v>1.028632777108641</v>
       </c>
       <c r="F360" t="n">
-        <v>1.088785274581909</v>
+        <v>1.088736222858429</v>
       </c>
     </row>
     <row r="361">
@@ -7902,7 +7902,7 @@
         <v>1.028526294593935</v>
       </c>
       <c r="F361" t="n">
-        <v>1.085259098861217</v>
+        <v>1.085297000631094</v>
       </c>
     </row>
     <row r="362">
@@ -7922,7 +7922,7 @@
         <v>1.028419812079229</v>
       </c>
       <c r="F362" t="n">
-        <v>1.08774008025229</v>
+        <v>1.087986647576094</v>
       </c>
     </row>
     <row r="363">
@@ -7942,7 +7942,7 @@
         <v>1.028313329564523</v>
       </c>
       <c r="F363" t="n">
-        <v>1.091852087597847</v>
+        <v>1.092102798438072</v>
       </c>
     </row>
     <row r="364">
@@ -7962,7 +7962,7 @@
         <v>1.028206847049816</v>
       </c>
       <c r="F364" t="n">
-        <v>1.094319299409986</v>
+        <v>1.094495885442495</v>
       </c>
     </row>
     <row r="365">
@@ -7982,7 +7982,7 @@
         <v>1.02810036453511</v>
       </c>
       <c r="F365" t="n">
-        <v>1.090328730641007</v>
+        <v>1.090356806803346</v>
       </c>
     </row>
     <row r="366">
@@ -8002,7 +8002,7 @@
         <v>1.027993882020404</v>
       </c>
       <c r="F366" t="n">
-        <v>1.085036597778797</v>
+        <v>1.085144761641025</v>
       </c>
     </row>
     <row r="367">
@@ -8022,7 +8022,7 @@
         <v>1.027887399505698</v>
       </c>
       <c r="F367" t="n">
-        <v>1.080596806390286</v>
+        <v>1.080779491458535</v>
       </c>
     </row>
     <row r="368">
@@ -8042,7 +8042,7 @@
         <v>1.027780916990992</v>
       </c>
       <c r="F368" t="n">
-        <v>1.079550590624809</v>
+        <v>1.07975669775486</v>
       </c>
     </row>
     <row r="369">
@@ -8062,7 +8062,7 @@
         <v>1.027674434476286</v>
       </c>
       <c r="F369" t="n">
-        <v>1.078825621597767</v>
+        <v>1.079014202501774</v>
       </c>
     </row>
     <row r="370">
@@ -8082,7 +8082,7 @@
         <v>1.02756795196158</v>
       </c>
       <c r="F370" t="n">
-        <v>1.073095579506159</v>
+        <v>1.073138454641104</v>
       </c>
     </row>
     <row r="371">
@@ -8102,7 +8102,7 @@
         <v>1.027461469446874</v>
       </c>
       <c r="F371" t="n">
-        <v>1.080050883618593</v>
+        <v>1.080314618289471</v>
       </c>
     </row>
     <row r="372">
@@ -8122,7 +8122,7 @@
         <v>1.027354986932167</v>
       </c>
       <c r="F372" t="n">
-        <v>1.082942325288057</v>
+        <v>1.083028022414446</v>
       </c>
     </row>
     <row r="373">
@@ -8142,7 +8142,7 @@
         <v>1.027248504417461</v>
       </c>
       <c r="F373" t="n">
-        <v>1.081744014494419</v>
+        <v>1.081667034262419</v>
       </c>
     </row>
     <row r="374">
@@ -8162,7 +8162,7 @@
         <v>1.027142021902755</v>
       </c>
       <c r="F374" t="n">
-        <v>1.079360555234551</v>
+        <v>1.07921713819623</v>
       </c>
     </row>
     <row r="375">
@@ -8182,7 +8182,7 @@
         <v>1.027035539388049</v>
       </c>
       <c r="F375" t="n">
-        <v>1.08418645985961</v>
+        <v>1.08423615613699</v>
       </c>
     </row>
     <row r="376">
@@ -8202,7 +8202,7 @@
         <v>1.026929056873343</v>
       </c>
       <c r="F376" t="n">
-        <v>1.104165607453585</v>
+        <v>1.104763428972364</v>
       </c>
     </row>
     <row r="377">
@@ -8222,7 +8222,7 @@
         <v>1.026822574358637</v>
       </c>
       <c r="F377" t="n">
-        <v>1.09622125428319</v>
+        <v>1.095920742819905</v>
       </c>
     </row>
     <row r="378">
@@ -8242,7 +8242,7 @@
         <v>1.026716091843931</v>
       </c>
       <c r="F378" t="n">
-        <v>1.090400702322722</v>
+        <v>1.090181648112535</v>
       </c>
     </row>
     <row r="379">
@@ -8262,7 +8262,7 @@
         <v>1.026609609329225</v>
       </c>
       <c r="F379" t="n">
-        <v>1.095307688181996</v>
+        <v>1.095357309740186</v>
       </c>
     </row>
     <row r="380">
@@ -8282,7 +8282,7 @@
         <v>1.026503126814518</v>
       </c>
       <c r="F380" t="n">
-        <v>1.094912494833469</v>
+        <v>1.094829676952362</v>
       </c>
     </row>
     <row r="381">
@@ -8302,7 +8302,7 @@
         <v>1.026396644299812</v>
       </c>
       <c r="F381" t="n">
-        <v>1.118783083883524</v>
+        <v>1.119301446961165</v>
       </c>
     </row>
     <row r="382">
@@ -8322,7 +8322,7 @@
         <v>1.026290161785106</v>
       </c>
       <c r="F382" t="n">
-        <v>1.134104648749828</v>
+        <v>1.134030767703056</v>
       </c>
     </row>
     <row r="383">
@@ -8342,7 +8342,7 @@
         <v>1.0261836792704</v>
       </c>
       <c r="F383" t="n">
-        <v>1.135382337136269</v>
+        <v>1.134776909902692</v>
       </c>
     </row>
     <row r="384">
@@ -8362,7 +8362,7 @@
         <v>1.026077196755694</v>
       </c>
       <c r="F384" t="n">
-        <v>1.128980780028105</v>
+        <v>1.128370853762627</v>
       </c>
     </row>
     <row r="385">
@@ -8382,7 +8382,7 @@
         <v>1.025970714240988</v>
       </c>
       <c r="F385" t="n">
-        <v>1.139800644073486</v>
+        <v>1.139669742536545</v>
       </c>
     </row>
     <row r="386">
@@ -8402,7 +8402,7 @@
         <v>1.025864231726282</v>
       </c>
       <c r="F386" t="n">
-        <v>1.137222057042122</v>
+        <v>1.136727130578756</v>
       </c>
     </row>
     <row r="387">
@@ -8422,7 +8422,7 @@
         <v>1.025757749211575</v>
       </c>
       <c r="F387" t="n">
-        <v>1.139555127797127</v>
+        <v>1.139399094003439</v>
       </c>
     </row>
     <row r="388">
@@ -8442,7 +8442,7 @@
         <v>1.025651266696869</v>
       </c>
       <c r="F388" t="n">
-        <v>1.151206088804603</v>
+        <v>1.151265991849899</v>
       </c>
     </row>
     <row r="389">
@@ -8462,7 +8462,7 @@
         <v>1.025544784182163</v>
       </c>
       <c r="F389" t="n">
-        <v>1.141978888903856</v>
+        <v>1.141959423186779</v>
       </c>
     </row>
     <row r="390">
@@ -8482,7 +8482,7 @@
         <v>1.025438301667457</v>
       </c>
       <c r="F390" t="n">
-        <v>1.130591814088821</v>
+        <v>1.130831593542099</v>
       </c>
     </row>
     <row r="391">
@@ -8502,7 +8502,7 @@
         <v>1.025331819152751</v>
       </c>
       <c r="F391" t="n">
-        <v>1.139805819296837</v>
+        <v>1.139945847167969</v>
       </c>
     </row>
     <row r="392">
@@ -8522,7 +8522,7 @@
         <v>1.025225336638045</v>
       </c>
       <c r="F392" t="n">
-        <v>1.135917774800062</v>
+        <v>1.136069376783371</v>
       </c>
     </row>
     <row r="393">
@@ -8542,7 +8542,7 @@
         <v>1.025118854123338</v>
       </c>
       <c r="F393" t="n">
-        <v>1.142872678188086</v>
+        <v>1.142852388622761</v>
       </c>
     </row>
     <row r="394">
@@ -8562,7 +8562,7 @@
         <v>1.025012371608632</v>
       </c>
       <c r="F394" t="n">
-        <v>1.138511653087139</v>
+        <v>1.13853981543541</v>
       </c>
     </row>
     <row r="395">
@@ -8582,7 +8582,7 @@
         <v>1.024905889093926</v>
       </c>
       <c r="F395" t="n">
-        <v>1.131949590533376</v>
+        <v>1.132026805618405</v>
       </c>
     </row>
     <row r="396">
@@ -8602,7 +8602,7 @@
         <v>1.02479940657922</v>
       </c>
       <c r="F396" t="n">
-        <v>1.128990189015865</v>
+        <v>1.12896286174655</v>
       </c>
     </row>
     <row r="397">
@@ -8622,7 +8622,7 @@
         <v>1.024692924064514</v>
       </c>
       <c r="F397" t="n">
-        <v>1.13021844561696</v>
+        <v>1.129990817826986</v>
       </c>
     </row>
     <row r="398">
@@ -8642,7 +8642,7 @@
         <v>1.024586441549808</v>
       </c>
       <c r="F398" t="n">
-        <v>1.131758489935398</v>
+        <v>1.131599617507458</v>
       </c>
     </row>
     <row r="399">
@@ -8662,7 +8662,7 @@
         <v>1.024479959035102</v>
       </c>
       <c r="F399" t="n">
-        <v>1.137965051758289</v>
+        <v>1.137715334801674</v>
       </c>
     </row>
     <row r="400">
@@ -8682,7 +8682,7 @@
         <v>1.024373476520396</v>
       </c>
       <c r="F400" t="n">
-        <v>1.129874491500855</v>
+        <v>1.129730262672901</v>
       </c>
     </row>
     <row r="401">
@@ -8702,7 +8702,7 @@
         <v>1.024266994005689</v>
       </c>
       <c r="F401" t="n">
-        <v>1.122257560007572</v>
+        <v>1.12202631460607</v>
       </c>
     </row>
     <row r="402">
@@ -8722,7 +8722,7 @@
         <v>1.024160511490983</v>
       </c>
       <c r="F402" t="n">
-        <v>1.125133068412542</v>
+        <v>1.124773195952177</v>
       </c>
     </row>
     <row r="403">
@@ -8742,7 +8742,7 @@
         <v>1.024054028976277</v>
       </c>
       <c r="F403" t="n">
-        <v>1.107302760500908</v>
+        <v>1.107023943439722</v>
       </c>
     </row>
     <row r="404">
@@ -8762,7 +8762,7 @@
         <v>1.023947546461571</v>
       </c>
       <c r="F404" t="n">
-        <v>1.119711131215096</v>
+        <v>1.119906902861595</v>
       </c>
     </row>
     <row r="405">
@@ -8782,7 +8782,7 @@
         <v>1.023841063946865</v>
       </c>
       <c r="F405" t="n">
-        <v>1.117952776634693</v>
+        <v>1.118234745240211</v>
       </c>
     </row>
     <row r="406">
@@ -8802,7 +8802,7 @@
         <v>1.023734581432159</v>
       </c>
       <c r="F406" t="n">
-        <v>1.119421667712927</v>
+        <v>1.119501407386065</v>
       </c>
     </row>
     <row r="407">
@@ -8822,7 +8822,7 @@
         <v>1.023628098917453</v>
       </c>
       <c r="F407" t="n">
-        <v>1.116355368618965</v>
+        <v>1.116651113780737</v>
       </c>
     </row>
     <row r="408">
@@ -8842,7 +8842,7 @@
         <v>1.023521616402747</v>
       </c>
       <c r="F408" t="n">
-        <v>1.12424895832181</v>
+        <v>1.124401208935976</v>
       </c>
     </row>
     <row r="409">
@@ -8862,7 +8862,7 @@
         <v>1.02341513388804</v>
       </c>
       <c r="F409" t="n">
-        <v>1.127704917598963</v>
+        <v>1.127923561344147</v>
       </c>
     </row>
     <row r="410">
@@ -8882,7 +8882,7 @@
         <v>1.023308651373334</v>
       </c>
       <c r="F410" t="n">
-        <v>1.132275652147531</v>
+        <v>1.132333188956976</v>
       </c>
     </row>
     <row r="411">
@@ -8902,7 +8902,7 @@
         <v>1.023202168858628</v>
       </c>
       <c r="F411" t="n">
-        <v>1.128087185361385</v>
+        <v>1.12796327192843</v>
       </c>
     </row>
     <row r="412">
@@ -8922,7 +8922,7 @@
         <v>1.023095686343922</v>
       </c>
       <c r="F412" t="n">
-        <v>1.135476032352448</v>
+        <v>1.135629386453628</v>
       </c>
     </row>
     <row r="413">
@@ -8942,7 +8942,7 @@
         <v>1.022989203829216</v>
       </c>
       <c r="F413" t="n">
-        <v>1.138107962138653</v>
+        <v>1.138070702806115</v>
       </c>
     </row>
     <row r="414">
@@ -8962,7 +8962,7 @@
         <v>1.02288272131451</v>
       </c>
       <c r="F414" t="n">
-        <v>1.132958072447777</v>
+        <v>1.132752725571394</v>
       </c>
     </row>
     <row r="415">
@@ -8982,7 +8982,7 @@
         <v>1.022776238799804</v>
       </c>
       <c r="F415" t="n">
-        <v>1.129519544048309</v>
+        <v>1.129368502335548</v>
       </c>
     </row>
     <row r="416">
@@ -9002,7 +9002,7 @@
         <v>1.022669756285097</v>
       </c>
       <c r="F416" t="n">
-        <v>1.136123292491436</v>
+        <v>1.136446376674175</v>
       </c>
     </row>
     <row r="417">
@@ -9022,7 +9022,7 @@
         <v>1.022563273770391</v>
       </c>
       <c r="F417" t="n">
-        <v>1.1346049383986</v>
+        <v>1.134554011802077</v>
       </c>
     </row>
     <row r="418">
@@ -9042,7 +9042,7 @@
         <v>1.022456791255685</v>
       </c>
       <c r="F418" t="n">
-        <v>1.143448812849522</v>
+        <v>1.143830454668999</v>
       </c>
     </row>
     <row r="419">
@@ -9062,7 +9062,7 @@
         <v>1.022350308740979</v>
       </c>
       <c r="F419" t="n">
-        <v>1.137367106025219</v>
+        <v>1.137069684691429</v>
       </c>
     </row>
     <row r="420">
@@ -9082,7 +9082,7 @@
         <v>1.022243826226273</v>
       </c>
       <c r="F420" t="n">
-        <v>1.141684638619423</v>
+        <v>1.141851474523544</v>
       </c>
     </row>
     <row r="421">
@@ -9102,7 +9102,7 @@
         <v>1.022137343711567</v>
       </c>
       <c r="F421" t="n">
-        <v>1.144235763177872</v>
+        <v>1.14418910769701</v>
       </c>
     </row>
     <row r="422">
@@ -9122,7 +9122,7 @@
         <v>1.02203086119686</v>
       </c>
       <c r="F422" t="n">
-        <v>1.139458011527061</v>
+        <v>1.139170500962734</v>
       </c>
     </row>
     <row r="423">
@@ -9142,7 +9142,7 @@
         <v>1.021924378682154</v>
       </c>
       <c r="F423" t="n">
-        <v>1.14165013368547</v>
+        <v>1.141786043872833</v>
       </c>
     </row>
     <row r="424">
@@ -9162,7 +9162,7 @@
         <v>1.021817896167448</v>
       </c>
       <c r="F424" t="n">
-        <v>1.142327757718563</v>
+        <v>1.142385366868973</v>
       </c>
     </row>
     <row r="425">
@@ -9182,7 +9182,7 @@
         <v>1.021711413652742</v>
       </c>
       <c r="F425" t="n">
-        <v>1.14844639349103</v>
+        <v>1.148742308986187</v>
       </c>
     </row>
     <row r="426">
@@ -9202,7 +9202,7 @@
         <v>1.021604931138036</v>
       </c>
       <c r="F426" t="n">
-        <v>1.157978842493296</v>
+        <v>1.158339252778888</v>
       </c>
     </row>
     <row r="427">
@@ -9222,7 +9222,7 @@
         <v>1.02149844862333</v>
       </c>
       <c r="F427" t="n">
-        <v>1.154720983627439</v>
+        <v>1.154587802857161</v>
       </c>
     </row>
     <row r="428">
@@ -9242,7 +9242,7 @@
         <v>1.021391966108624</v>
       </c>
       <c r="F428" t="n">
-        <v>1.156010722374916</v>
+        <v>1.156107336037159</v>
       </c>
     </row>
     <row r="429">
@@ -9262,7 +9262,7 @@
         <v>1.021285483593918</v>
       </c>
       <c r="F429" t="n">
-        <v>1.148174388885498</v>
+        <v>1.148081160020828</v>
       </c>
     </row>
     <row r="430">
@@ -9282,7 +9282,7 @@
         <v>1.021179001079211</v>
       </c>
       <c r="F430" t="n">
-        <v>1.147701478970051</v>
+        <v>1.147820876330137</v>
       </c>
     </row>
     <row r="431">
@@ -9302,7 +9302,7 @@
         <v>1.021072518564505</v>
       </c>
       <c r="F431" t="n">
-        <v>1.149623709021807</v>
+        <v>1.149833289690018</v>
       </c>
     </row>
     <row r="432">
@@ -9322,7 +9322,7 @@
         <v>1.020966036049799</v>
       </c>
       <c r="F432" t="n">
-        <v>1.151960845146179</v>
+        <v>1.152160961437225</v>
       </c>
     </row>
     <row r="433">
@@ -9342,7 +9342,7 @@
         <v>1.020859553535093</v>
       </c>
       <c r="F433" t="n">
-        <v>1.157498589689135</v>
+        <v>1.157790978574753</v>
       </c>
     </row>
     <row r="434">
@@ -9362,7 +9362,7 @@
         <v>1.020753071020387</v>
       </c>
       <c r="F434" t="n">
-        <v>1.160751804821491</v>
+        <v>1.160869518751502</v>
       </c>
     </row>
     <row r="435">
@@ -9382,7 +9382,7 @@
         <v>1.020646588505681</v>
       </c>
       <c r="F435" t="n">
-        <v>1.165172210210562</v>
+        <v>1.16529774646461</v>
       </c>
     </row>
     <row r="436">
@@ -9402,7 +9402,7 @@
         <v>1.020540105990975</v>
       </c>
       <c r="F436" t="n">
-        <v>1.169591429657936</v>
+        <v>1.169741641523838</v>
       </c>
     </row>
     <row r="437">
@@ -9422,7 +9422,7 @@
         <v>1.020433623476269</v>
       </c>
       <c r="F437" t="n">
-        <v>1.171650441613197</v>
+        <v>1.171751936388016</v>
       </c>
     </row>
     <row r="438">
@@ -9442,7 +9442,7 @@
         <v>1.020327140961562</v>
       </c>
       <c r="F438" t="n">
-        <v>1.177637909688354</v>
+        <v>1.177921475833058</v>
       </c>
     </row>
     <row r="439">
@@ -9462,7 +9462,7 @@
         <v>1.020220658446856</v>
       </c>
       <c r="F439" t="n">
-        <v>1.180192225108147</v>
+        <v>1.180335905715227</v>
       </c>
     </row>
     <row r="440">
@@ -9482,7 +9482,7 @@
         <v>1.02011417593215</v>
       </c>
       <c r="F440" t="n">
-        <v>1.179580562467575</v>
+        <v>1.179520589362383</v>
       </c>
     </row>
     <row r="441">
@@ -9502,7 +9502,7 @@
         <v>1.020007693417444</v>
       </c>
       <c r="F441" t="n">
-        <v>1.175621541593075</v>
+        <v>1.175572420831919</v>
       </c>
     </row>
     <row r="442">
@@ -9522,7 +9522,7 @@
         <v>1.019901210902738</v>
       </c>
       <c r="F442" t="n">
-        <v>1.177171779489517</v>
+        <v>1.1774192289114</v>
       </c>
     </row>
     <row r="443">
@@ -9542,7 +9542,7 @@
         <v>1.019794728388032</v>
       </c>
       <c r="F443" t="n">
-        <v>1.170668156224489</v>
+        <v>1.17053040157795</v>
       </c>
     </row>
     <row r="444">
@@ -9562,7 +9562,7 @@
         <v>1.019688245873326</v>
       </c>
       <c r="F444" t="n">
-        <v>1.172218364953995</v>
+        <v>1.172536773033142</v>
       </c>
     </row>
     <row r="445">
@@ -9582,7 +9582,7 @@
         <v>1.019581763358619</v>
       </c>
       <c r="F445" t="n">
-        <v>1.171777461768985</v>
+        <v>1.171974672122001</v>
       </c>
     </row>
     <row r="446">
@@ -9602,7 +9602,7 @@
         <v>1.019475280843913</v>
       </c>
       <c r="F446" t="n">
-        <v>1.169561174468994</v>
+        <v>1.169653771533966</v>
       </c>
     </row>
     <row r="447">
@@ -9622,7 +9622,7 @@
         <v>1.019368798329207</v>
       </c>
       <c r="F447" t="n">
-        <v>1.168924140868187</v>
+        <v>1.169049648888707</v>
       </c>
     </row>
     <row r="448">
@@ -9642,7 +9642,7 @@
         <v>1.019262315814501</v>
       </c>
       <c r="F448" t="n">
-        <v>1.16616960824132</v>
+        <v>1.166124490227699</v>
       </c>
     </row>
     <row r="449">
@@ -9662,7 +9662,7 @@
         <v>1.019155833299795</v>
       </c>
       <c r="F449" t="n">
-        <v>1.159648940559626</v>
+        <v>1.159447460818291</v>
       </c>
     </row>
     <row r="450">
@@ -9682,7 +9682,7 @@
         <v>1.019049350785089</v>
       </c>
       <c r="F450" t="n">
-        <v>1.163975234448314</v>
+        <v>1.164380825611353</v>
       </c>
     </row>
     <row r="451">
@@ -9702,7 +9702,7 @@
         <v>1.018942868270382</v>
       </c>
       <c r="F451" t="n">
-        <v>1.159366565903425</v>
+        <v>1.159332905368209</v>
       </c>
     </row>
     <row r="452">
@@ -9722,7 +9722,7 @@
         <v>1.018836385755676</v>
       </c>
       <c r="F452" t="n">
-        <v>1.162159243266583</v>
+        <v>1.162396153240204</v>
       </c>
     </row>
     <row r="453">
@@ -9742,7 +9742,7 @@
         <v>1.01872990324097</v>
       </c>
       <c r="F453" t="n">
-        <v>1.169204623484015</v>
+        <v>1.169590525336266</v>
       </c>
     </row>
     <row r="454">
@@ -9762,7 +9762,7 @@
         <v>1.018623420726264</v>
       </c>
       <c r="F454" t="n">
-        <v>1.1748274964118</v>
+        <v>1.175014306411743</v>
       </c>
     </row>
     <row r="455">
@@ -9782,7 +9782,7 @@
         <v>1.018516938211558</v>
       </c>
       <c r="F455" t="n">
-        <v>1.176719416280389</v>
+        <v>1.176642943145633</v>
       </c>
     </row>
     <row r="456">
@@ -9802,7 +9802,7 @@
         <v>1.018410455696852</v>
       </c>
       <c r="F456" t="n">
-        <v>1.174501444272399</v>
+        <v>1.174246862532496</v>
       </c>
     </row>
     <row r="457">
@@ -9822,7 +9822,7 @@
         <v>1.018303973182146</v>
       </c>
       <c r="F457" t="n">
-        <v>1.173656162611246</v>
+        <v>1.173489985532165</v>
       </c>
     </row>
     <row r="458">
@@ -9842,7 +9842,7 @@
         <v>1.01819749066744</v>
       </c>
       <c r="F458" t="n">
-        <v>1.158448677588701</v>
+        <v>1.157904347398281</v>
       </c>
     </row>
     <row r="459">
@@ -9862,7 +9862,7 @@
         <v>1.018091008152733</v>
       </c>
       <c r="F459" t="n">
-        <v>1.154038380501866</v>
+        <v>1.15392793569088</v>
       </c>
     </row>
     <row r="460">
@@ -9882,7 +9882,7 @@
         <v>1.017984525638027</v>
       </c>
       <c r="F460" t="n">
-        <v>1.139726736369133</v>
+        <v>1.139782414178848</v>
       </c>
     </row>
     <row r="461">
@@ -9902,7 +9902,7 @@
         <v>1.017878043123321</v>
       </c>
       <c r="F461" t="n">
-        <v>1.141325298494697</v>
+        <v>1.142203676916361</v>
       </c>
     </row>
     <row r="462">
@@ -9922,7 +9922,7 @@
         <v>1.017771560608615</v>
       </c>
       <c r="F462" t="n">
-        <v>1.159589153945446</v>
+        <v>1.160680011212826</v>
       </c>
     </row>
     <row r="463">
@@ -9942,7 +9942,7 @@
         <v>1.017665078093909</v>
       </c>
       <c r="F463" t="n">
-        <v>1.158090639331341</v>
+        <v>1.158735287387371</v>
       </c>
     </row>
     <row r="464">
@@ -9962,7 +9962,7 @@
         <v>1.017558595579203</v>
       </c>
       <c r="F464" t="n">
-        <v>1.158099203528166</v>
+        <v>1.158434112775326</v>
       </c>
     </row>
     <row r="465">
@@ -9982,7 +9982,7 @@
         <v>1.017452113064497</v>
       </c>
       <c r="F465" t="n">
-        <v>1.165926537415981</v>
+        <v>1.165959606747627</v>
       </c>
     </row>
     <row r="466">
@@ -10002,7 +10002,7 @@
         <v>1.017345630549791</v>
       </c>
       <c r="F466" t="n">
-        <v>1.166721092902422</v>
+        <v>1.166577708501816</v>
       </c>
     </row>
     <row r="467">
@@ -10022,7 +10022,7 @@
         <v>1.017239148035084</v>
       </c>
       <c r="F467" t="n">
-        <v>1.164074968624115</v>
+        <v>1.163927808997631</v>
       </c>
     </row>
     <row r="468">
@@ -10042,7 +10042,7 @@
         <v>1.017132665520378</v>
       </c>
       <c r="F468" t="n">
-        <v>1.161654908313751</v>
+        <v>1.161561559491158</v>
       </c>
     </row>
     <row r="469">
@@ -10062,7 +10062,7 @@
         <v>1.017026183005672</v>
       </c>
       <c r="F469" t="n">
-        <v>1.166780982199907</v>
+        <v>1.166748630235195</v>
       </c>
     </row>
     <row r="470">
@@ -10082,7 +10082,7 @@
         <v>1.016919700490966</v>
       </c>
       <c r="F470" t="n">
-        <v>1.169821007682681</v>
+        <v>1.169866983898878</v>
       </c>
     </row>
     <row r="471">
@@ -10102,7 +10102,7 @@
         <v>1.01681321797626</v>
       </c>
       <c r="F471" t="n">
-        <v>1.164256586242914</v>
+        <v>1.164245269367695</v>
       </c>
     </row>
     <row r="472">
@@ -10122,7 +10122,7 @@
         <v>1.016706735461554</v>
       </c>
       <c r="F472" t="n">
-        <v>1.169532026531696</v>
+        <v>1.169740521607399</v>
       </c>
     </row>
     <row r="473">
@@ -10142,7 +10142,7 @@
         <v>1.016600252946848</v>
       </c>
       <c r="F473" t="n">
-        <v>1.16569417979002</v>
+        <v>1.165696543040275</v>
       </c>
     </row>
     <row r="474">
@@ -10162,7 +10162,7 @@
         <v>1.016493770432142</v>
       </c>
       <c r="F474" t="n">
-        <v>1.164212314788699</v>
+        <v>1.164241330745816</v>
       </c>
     </row>
     <row r="475">
@@ -10182,7 +10182,7 @@
         <v>1.016387287917435</v>
       </c>
       <c r="F475" t="n">
-        <v>1.164789023625851</v>
+        <v>1.164868885803223</v>
       </c>
     </row>
     <row r="476">
@@ -10202,7 +10202,7 @@
         <v>1.016280805402729</v>
       </c>
       <c r="F476" t="n">
-        <v>1.160944792114496</v>
+        <v>1.16071305464983</v>
       </c>
     </row>
     <row r="477">
@@ -10222,7 +10222,7 @@
         <v>1.016174322888023</v>
       </c>
       <c r="F477" t="n">
-        <v>1.170505459794402</v>
+        <v>1.171293084073663</v>
       </c>
     </row>
     <row r="478">
@@ -10242,7 +10242,7 @@
         <v>1.016067840373317</v>
       </c>
       <c r="F478" t="n">
-        <v>1.163086389901638</v>
+        <v>1.162359827479124</v>
       </c>
     </row>
     <row r="479">
@@ -10262,7 +10262,7 @@
         <v>1.015961357858611</v>
       </c>
       <c r="F479" t="n">
-        <v>1.16402661976099</v>
+        <v>1.164147216367722</v>
       </c>
     </row>
     <row r="480">
@@ -10282,7 +10282,7 @@
         <v>1.015854875343905</v>
       </c>
       <c r="F480" t="n">
-        <v>1.163636417443752</v>
+        <v>1.163670613460541</v>
       </c>
     </row>
     <row r="481">
@@ -10302,7 +10302,7 @@
         <v>1.015748392829198</v>
       </c>
       <c r="F481" t="n">
-        <v>1.168049876135588</v>
+        <v>1.168205283969641</v>
       </c>
     </row>
     <row r="482">
@@ -10322,7 +10322,7 @@
         <v>1.015641910314492</v>
       </c>
       <c r="F482" t="n">
-        <v>1.168558951108456</v>
+        <v>1.168560762158632</v>
       </c>
     </row>
     <row r="483">
@@ -10342,7 +10342,7 @@
         <v>1.015535427799786</v>
       </c>
       <c r="F483" t="n">
-        <v>1.171030525270701</v>
+        <v>1.171082601420879</v>
       </c>
     </row>
     <row r="484">
@@ -10362,7 +10362,7 @@
         <v>1.01542894528508</v>
       </c>
       <c r="F484" t="n">
-        <v>1.164093199371696</v>
+        <v>1.163816883886457</v>
       </c>
     </row>
     <row r="485">
@@ -10382,7 +10382,7 @@
         <v>1.015322462770374</v>
       </c>
       <c r="F485" t="n">
-        <v>1.165858650990725</v>
+        <v>1.16590646877408</v>
       </c>
     </row>
     <row r="486">
@@ -10402,7 +10402,7 @@
         <v>1.015215980255668</v>
       </c>
       <c r="F486" t="n">
-        <v>1.164898675920367</v>
+        <v>1.164883606145382</v>
       </c>
     </row>
     <row r="487">
@@ -10422,7 +10422,7 @@
         <v>1.015109497740962</v>
       </c>
       <c r="F487" t="n">
-        <v>1.171598776689172</v>
+        <v>1.171862077611685</v>
       </c>
     </row>
     <row r="488">
@@ -10442,7 +10442,7 @@
         <v>1.015003015226255</v>
       </c>
       <c r="F488" t="n">
-        <v>1.175676127080918</v>
+        <v>1.17576837924242</v>
       </c>
     </row>
     <row r="489">
@@ -10462,7 +10462,7 @@
         <v>1.014896532711549</v>
       </c>
       <c r="F489" t="n">
-        <v>1.170879989579916</v>
+        <v>1.170653585387468</v>
       </c>
     </row>
     <row r="490">
@@ -10482,7 +10482,7 @@
         <v>1.014790050196843</v>
       </c>
       <c r="F490" t="n">
-        <v>1.16926775292635</v>
+        <v>1.169205157613754</v>
       </c>
     </row>
     <row r="491">
@@ -10502,7 +10502,7 @@
         <v>1.014683567682137</v>
       </c>
       <c r="F491" t="n">
-        <v>1.17324414786458</v>
+        <v>1.173410914880037</v>
       </c>
     </row>
     <row r="492">
@@ -10522,7 +10522,7 @@
         <v>1.014577085167431</v>
       </c>
       <c r="F492" t="n">
-        <v>1.173011757335663</v>
+        <v>1.172973927485943</v>
       </c>
     </row>
     <row r="493">
@@ -10542,7 +10542,7 @@
         <v>1.014470602652725</v>
       </c>
       <c r="F493" t="n">
-        <v>1.17568423894167</v>
+        <v>1.175811884220839</v>
       </c>
     </row>
     <row r="494">
@@ -10562,7 +10562,7 @@
         <v>1.014364120138019</v>
       </c>
       <c r="F494" t="n">
-        <v>1.18551980817318</v>
+        <v>1.185921997994185</v>
       </c>
     </row>
     <row r="495">
@@ -10582,7 +10582,7 @@
         <v>1.014257637623313</v>
       </c>
       <c r="F495" t="n">
-        <v>1.181268564505577</v>
+        <v>1.180986036390662</v>
       </c>
     </row>
     <row r="496">
@@ -10602,7 +10602,7 @@
         <v>1.014151155108606</v>
       </c>
       <c r="F496" t="n">
-        <v>1.178138735314608</v>
+        <v>1.178007132546902</v>
       </c>
     </row>
     <row r="497">
@@ -10622,7 +10622,7 @@
         <v>1.0140446725939</v>
       </c>
       <c r="F497" t="n">
-        <v>1.174163722199202</v>
+        <v>1.174037313514948</v>
       </c>
     </row>
     <row r="498">
@@ -10642,7 +10642,7 @@
         <v>1.013938190079194</v>
       </c>
       <c r="F498" t="n">
-        <v>1.179829581524134</v>
+        <v>1.180175311596394</v>
       </c>
     </row>
     <row r="499">
@@ -10662,7 +10662,7 @@
         <v>1.013831707564488</v>
       </c>
       <c r="F499" t="n">
-        <v>1.181261980944872</v>
+        <v>1.181330850448608</v>
       </c>
     </row>
     <row r="500">
@@ -10682,7 +10682,7 @@
         <v>1.013725225049782</v>
       </c>
       <c r="F500" t="n">
-        <v>1.173562952333689</v>
+        <v>1.173311803215742</v>
       </c>
     </row>
     <row r="501">
@@ -10690,7 +10690,7 @@
         <v>45926</v>
       </c>
       <c r="B501" t="n">
-        <v>1.16814</v>
+        <v>1.17013</v>
       </c>
       <c r="C501" t="n">
         <v>1.16643</v>
@@ -10702,7 +10702,7 @@
         <v>1.013618742535076</v>
       </c>
       <c r="F501" t="n">
-        <v>1.165982052707076</v>
+        <v>1.165767986322642</v>
       </c>
     </row>
   </sheetData>
@@ -10802,7 +10802,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-25 23:19:13</t>
+          <t>2025-09-27 14:29:55</t>
         </is>
       </c>
     </row>
